--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA08434B-2659-4723-9300-77453A8461AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07463CB-A8D3-4A1C-8C27-03B88AC60837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Auteur:</t>
   </si>
@@ -142,12 +142,24 @@
     <t>Une analyse approfondie du cahier des charges (CDC) afin de bien comprendre les objectifs, les fonctionnalités attendues et les contraintes techniques du projet</t>
   </si>
   <si>
+    <t xml:space="preserve"> Github Project https://github.com/users/Josefnademo/projects/5</t>
+  </si>
+  <si>
+    <t>Réfléxion sur le but et moyens à l'aide desquels attenir les goals est pas seulement réel, mais qui correspond à ma manniere et la thème de Crypto monnaies, Amélioration de Readme.md, ajout des notion nésaiser(utilité de mon projet, son but, réelistion, test, tech stack); choix du thème et API</t>
+  </si>
+  <si>
+    <t>https://www.coingecko.com/en/api?utm_source=chatgpt.com</t>
+  </si>
+  <si>
     <t>Création de mon mon repos GitHub privé, Une structure de fichiers organisée a été mise en place afin d’assurer une bonne lisibilité et une gestion efficace du code et des    ressources(          documentation/ — pour tous les documents liés au projet
-readme.md — fichier de présentation du projet | Rapport création | .gitignore
+readme.md — fichier de présentation du projet-Rapport | .gitignore
 Début de la planification des tâches dans le JDT</t>
   </si>
   <si>
-    <t>Github repos/ Rapport / JDT / CDC / .gitignore( https://stackoverflow.com/questions/2143956/gitignore-for-visual-studio-projects-and-solutions )</t>
+    <t>Github repos/ Readme-Rapport / JDT / CDC / .gitignore( https://stackoverflow.com/questions/2143956/gitignore-for-visual-studio-projects-and-solutions )</t>
+  </si>
+  <si>
+    <t>Création des user stories et Acceptance criteria</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1163,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1160,7 +1172,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2084,7 +2096,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2093,7 +2105,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4282,7 +4294,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4337,7 +4349,7 @@
       <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>1 heures 0 minutes</v>
+        <v>1 heures 50 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4356,11 +4368,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4430,10 +4442,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
         <v>2</v>
@@ -4454,10 +4466,18 @@
         <v>45898</v>
       </c>
       <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="40"/>
+      <c r="D9" s="36">
+        <v>30</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
@@ -4468,7 +4488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>35</v>
@@ -4477,10 +4497,18 @@
         <v>45898</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="32">
+        <v>20</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="M10" t="s">
         <v>3</v>
       </c>
@@ -10946,11 +10974,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">SUM(A6:B6)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="70" t="str">
         <f>'Journal de travail'!M8</f>
@@ -10958,11 +10986,11 @@
       </c>
       <c r="F6" s="71" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>0 h 30 min</v>
+        <v>1 h 00 min</v>
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11057,11 +11085,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11069,11 +11097,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 30 min</v>
+        <v>0 h 50 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11129,22 +11157,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 00 min</v>
+        <v>1 h 50 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>1.1363636363636364E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07463CB-A8D3-4A1C-8C27-03B88AC60837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C01CD-1125-491A-9D8D-5A14308F7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Auteur:</t>
   </si>
@@ -160,6 +160,14 @@
   </si>
   <si>
     <t>Création des user stories et Acceptance criteria</t>
+  </si>
+  <si>
+    <t>Rapport.md /  Planification.md / JDT</t>
+  </si>
+  <si>
+    <t>Rapport /  Planification; Création des fichiers et organisation des dossiers pour le projet. apport : Rédaction complète du rapport du projet, incluant objectifs, domaine, analyse, réalisation, tests et conclusion.
+Planification : Élaboration du plan sur 8 semaines avec tâches, livrables et marges pour les imprévus.
+JDT : Tenue du journal de travail pour suivre l’avancement, les difficultés rencontrées et les solutions apportées.</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1180,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2096,7 +2104,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2105,7 +2113,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4294,7 +4302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4349,7 +4357,7 @@
       <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>1 heures 50 minutes</v>
+        <v>2 heures 30 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4368,11 +4376,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4519,17 +4527,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="str">
+    <row r="11" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="B11" s="34">
+        <v>45898</v>
+      </c>
       <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="36">
+        <v>40</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="M11" t="s">
         <v>4</v>
       </c>
@@ -10990,7 +11008,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.54545454545454541</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11085,11 +11103,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11097,11 +11115,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 50 min</v>
+        <v>1 h 30 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.45454545454545453</v>
+        <v>0.6</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11157,22 +11175,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 50 min</v>
+        <v>2 h 30 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.8409090909090908E-2</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11216,6 +11234,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11224,15 +11251,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11437,6 +11455,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11445,14 +11471,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C01CD-1125-491A-9D8D-5A14308F7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B10E1-7480-4824-BBC1-926FA8CB24EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -162,12 +162,12 @@
     <t>Création des user stories et Acceptance criteria</t>
   </si>
   <si>
-    <t>Rapport.md /  Planification.md / JDT</t>
+    <t>Rapport /  Planification; Création des fichiers et organisation des dossiers pour le projet. apport : Rédaction complète du rapport du projet, incluant objectifs, domaine, analyse, réalisation, tests et conclusion. Readme
+Planification : Élaboration du plan sur 8 semaines avec tâches, livrables et marges pour les imprévus.
+JDT : Tenue du journal de travail pour suivre l’avancement, les difficultés rencontrées et les solutions apportées.</t>
   </si>
   <si>
-    <t>Rapport /  Planification; Création des fichiers et organisation des dossiers pour le projet. apport : Rédaction complète du rapport du projet, incluant objectifs, domaine, analyse, réalisation, tests et conclusion.
-Planification : Élaboration du plan sur 8 semaines avec tâches, livrables et marges pour les imprévus.
-JDT : Tenue du journal de travail pour suivre l’avancement, les difficultés rencontrées et les solutions apportées.</t>
+    <t>Rapport.md /  Planification.md / JDT /  Readme</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2104,7 +2104,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2113,7 +2113,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4302,7 +4302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4357,7 +4357,7 @@
       <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>2 heures 30 minutes</v>
+        <v>2 heures 50 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4372,15 +4372,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4535,18 +4535,18 @@
       <c r="B11" s="34">
         <v>45898</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36">
-        <v>40</v>
-      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="36"/>
       <c r="E11" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>4</v>
@@ -4559,11 +4559,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="str">
+      <c r="A12" s="62">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="B12" s="30">
+        <v>45898</v>
+      </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
@@ -11008,7 +11010,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.4</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11099,15 +11101,15 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11115,11 +11117,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 30 min</v>
+        <v>1 h 50 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11171,26 +11173,26 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>2 h 30 min</v>
+        <v>2 h 50 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>2.8409090909090908E-2</v>
+        <v>3.2196969696969696E-2</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11234,15 +11236,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11251,6 +11244,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11455,14 +11457,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11471,6 +11465,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B10E1-7480-4824-BBC1-926FA8CB24EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507CFA02-1A45-4C92-A313-710DE103886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -1544,10 +1544,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -1556,7 +1556,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,10 +1957,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -1969,7 +1969,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,7 +4302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10913,7 +10913,7 @@
   <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -10933,7 +10933,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="68">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="G2" s="66" t="s">
         <v>23</v>
@@ -11018,10 +11018,10 @@
       </c>
       <c r="M6" s="52" t="str">
         <f>INT($F$2*N6)&amp;" h "&amp;TEXT(ROUND(MOD($F$2*N6,1)*60,0),"00")&amp;" m"</f>
-        <v>17 h 36 m</v>
+        <v>3 h 36 m</v>
       </c>
       <c r="N6" s="58">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -11055,10 +11055,10 @@
       </c>
       <c r="M7" s="52" t="str">
         <f t="shared" ref="M7:M10" si="3">INT($F$2*N7)&amp;" h "&amp;TEXT(ROUND(MOD($F$2*N7,1)*60,0),"00")&amp;" m"</f>
-        <v>35 h 12 m</v>
+        <v>12 h 00 m</v>
       </c>
       <c r="N7" s="59">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="M8" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>8 h 48 m</v>
+        <v>2 h 24 m</v>
       </c>
       <c r="N8" s="58">
         <v>0.1</v>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="M9" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>22 h 00 m</v>
+        <v>6 h 00 m</v>
       </c>
       <c r="N9" s="59">
         <v>0.25</v>
@@ -11164,10 +11164,10 @@
       </c>
       <c r="M10" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>4 h 24 m</v>
+        <v>0 h 00 m</v>
       </c>
       <c r="N10" s="83">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>3.2196969696969696E-2</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11206,7 +11206,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>F2*60</f>
-        <v>5280</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -11223,7 +11223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F31118-7D2C-C547-B9C9-EA2B04E048B8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -11236,6 +11236,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11244,15 +11253,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11457,6 +11457,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11465,14 +11473,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507CFA02-1A45-4C92-A313-710DE103886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B210B-374C-4017-8F5F-1D9B4585B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Auteur:</t>
   </si>
@@ -169,6 +169,24 @@
   <si>
     <t>Rapport.md /  Planification.md / JDT /  Readme</t>
   </si>
+  <si>
+    <t>https://github.com/users/Josefnademo/projects/5/views/1</t>
+  </si>
+  <si>
+    <t>Finalisation de la planification et création des tâches sur GitHub Project.</t>
+  </si>
+  <si>
+    <t>Collecte d’informations pour comprendre comment travailler avec ScottPlot.</t>
+  </si>
+  <si>
+    <t>Création d’une maquette permettant de représenter clairement mon idée et de répondre aux besoins techniques du programme.</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=HGF1fm1vmIk&amp;ab_channel=IndustrialITandAutomation   Tooltip: https://www.w3schools.com/css/css_tooltip.asp   windowsforms: https://stackoverflow.com/questions/29024910/how-to-design-a-custom-close-minimize-and-maximize-button-in-windows-form-appli </t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +199,7 @@
     <numFmt numFmtId="167" formatCode="dd\ mmm"/>
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,6 +311,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,10 +452,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -619,6 +646,14 @@
     <xf numFmtId="10" fontId="11" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -630,7 +665,8 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
@@ -1171,16 +1207,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2104,16 +2140,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6470588235294118</c:v>
+                  <c:v>0.51724137931034486</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4302,7 +4338,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4334,15 +4370,15 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4351,13 +4387,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>2 heures 50 minutes</v>
+        <v>4 heures 50 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4376,20 +4412,20 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -4561,16 +4597,24 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="30">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="39"/>
+      <c r="D12" s="32">
+        <v>40</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>41</v>
+      </c>
       <c r="M12" t="s">
         <v>28</v>
       </c>
@@ -4581,17 +4625,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="str">
+    <row r="13" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="63">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="34">
+        <v>45905</v>
+      </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="36">
+        <v>40</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>46</v>
+      </c>
       <c r="N13">
         <v>6</v>
       </c>
@@ -4599,17 +4653,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="str">
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="B14" s="30">
+        <v>45905</v>
+      </c>
       <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="39"/>
+      <c r="D14" s="32">
+        <v>40</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="N14">
         <v>7</v>
       </c>
@@ -10899,10 +10963,14 @@
       <formula1>$M$7:$M$12</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" display="https://www.youtube.com/watch?v=HGF1fm1vmIk&amp;ab_channel=IndustrialITandAutomation" xr:uid="{336CBD97-FBE6-4DA0-92F1-7E19F61FE3AA}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{160CB3A4-60AC-4C67-9742-E843A97D81B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10994,11 +11062,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">SUM(A6:B6)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E6" s="70" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11006,11 +11074,11 @@
       </c>
       <c r="F6" s="71" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>1 h 00 min</v>
+        <v>1 h 40 min</v>
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.35294117647058826</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11031,11 +11099,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11043,11 +11111,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>0 h 00 min</v>
+        <v>0 h 40 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11105,11 +11173,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11117,11 +11185,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 50 min</v>
+        <v>2 h 30 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.6470588235294118</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11177,22 +11245,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>2 h 50 min</v>
+        <v>4 h 50 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.11805555555555555</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B210B-374C-4017-8F5F-1D9B4585B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565BF1A-4699-4FD6-B468-B9B01EEDDD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Auteur:</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=HGF1fm1vmIk&amp;ab_channel=IndustrialITandAutomation   Tooltip: https://www.w3schools.com/css/css_tooltip.asp   windowsforms: https://stackoverflow.com/questions/29024910/how-to-design-a-custom-close-minimize-and-maximize-button-in-windows-form-appli </t>
+  </si>
+  <si>
+    <t>Début du codage du projet : création et modélisation des Windows Forms, création des classes, et première mise en place d’une interface graphique évolutive.</t>
+  </si>
+  <si>
+    <t>System.Text.Json / ScottPlot</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1216,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2140,16 +2146,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13793103448275862</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51724137931034486</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4337,8 +4343,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4399,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>4 heures 50 minutes</v>
+        <v>5 heures 20 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4412,11 +4418,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4681,17 +4687,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="str">
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="63">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="B15" s="34">
+        <v>45905</v>
+      </c>
       <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="40"/>
+      <c r="D15" s="36">
+        <v>30</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="N15">
         <v>8</v>
       </c>
@@ -11078,7 +11094,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.34482758620689657</v>
+        <v>0.3125</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11099,11 +11115,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11111,11 +11127,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>0 h 40 min</v>
+        <v>1 h 10 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.13793103448275862</v>
+        <v>0.21875</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11189,7 +11205,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.51724137931034486</v>
+        <v>0.46875</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11245,22 +11261,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>4 h 50 min</v>
+        <v>5 h 20 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.2013888888888889</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565BF1A-4699-4FD6-B468-B9B01EEDDD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991F1CB-9B97-4974-9B2E-34CC4C57BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Auteur:</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Réfléxion sur le but et moyens à l'aide desquels attenir les goals est pas seulement réel, mais qui correspond à ma manniere et la thème de Crypto monnaies, Amélioration de Readme.md, ajout des notion nésaiser(utilité de mon projet, son but, réelistion, test, tech stack); choix du thème et API</t>
   </si>
   <si>
-    <t>https://www.coingecko.com/en/api?utm_source=chatgpt.com</t>
-  </si>
-  <si>
     <t>Création de mon mon repos GitHub privé, Une structure de fichiers organisée a été mise en place afin d’assurer une bonne lisibilité et une gestion efficace du code et des    ressources(          documentation/ — pour tous les documents liés au projet
 readme.md — fichier de présentation du projet-Rapport | .gitignore
 Début de la planification des tâches dans le JDT</t>
@@ -192,6 +189,15 @@
   </si>
   <si>
     <t>System.Text.Json / ScottPlot</t>
+  </si>
+  <si>
+    <t>https://www.coingecko.com/en/api?</t>
+  </si>
+  <si>
+    <t>Premier graphique; faire connaissance sur des fonctionnalités principales-nécessaires; +json extrait des cryptos monnaies</t>
+  </si>
+  <si>
+    <t>{"error":{"status":{"timestamp":"2025-09-12T12:30:06.778+00:00","error_code":10012,"error_message":"Your request exceeds the allowed time range. Public API users are limited to querying historical data within the past 365 days. Upgrade to a paid plan to enjoy full historical data access: https://www.coingecko.com/en/api/pricing. "}}}</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1222,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2146,16 +2152,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.26315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21875</c:v>
+                  <c:v>0.34210526315789475</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.39473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4343,8 +4349,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4399,7 +4405,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>5 heures 20 minutes</v>
+        <v>6 heures 20 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4414,7 +4420,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -4422,7 +4428,7 @@
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4492,10 +4498,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>37</v>
       </c>
       <c r="M8" t="s">
         <v>2</v>
@@ -4523,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>33</v>
@@ -4556,8 +4562,8 @@
       <c r="F10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>35</v>
+      <c r="G10" s="85" t="s">
+        <v>48</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
@@ -4585,10 +4591,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>40</v>
       </c>
       <c r="M11" t="s">
         <v>4</v>
@@ -4616,10 +4622,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>28</v>
@@ -4647,10 +4653,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>6</v>
@@ -4675,10 +4681,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="N14">
         <v>7</v>
@@ -4703,10 +4709,10 @@
         <v>19</v>
       </c>
       <c r="F15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>47</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>48</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -4715,27 +4721,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="str">
+    <row r="16" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="62">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="B16" s="30">
+        <v>45912</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
       <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="39"/>
+      <c r="E16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>50</v>
+      </c>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="str">
+      <c r="A17" s="63">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="34">
+        <v>45912</v>
+      </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
       <c r="E17" s="37"/>
@@ -4746,11 +4764,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="str">
+      <c r="A18" s="62">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="B18" s="30">
+        <v>45912</v>
+      </c>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
@@ -4761,11 +4781,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="str">
+      <c r="A19" s="63">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="B19" s="34">
+        <v>45912</v>
+      </c>
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -10982,11 +11004,12 @@
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="https://www.youtube.com/watch?v=HGF1fm1vmIk&amp;ab_channel=IndustrialITandAutomation" xr:uid="{336CBD97-FBE6-4DA0-92F1-7E19F61FE3AA}"/>
     <hyperlink ref="G12" r:id="rId2" xr:uid="{160CB3A4-60AC-4C67-9742-E843A97D81B7}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{0F91120E-3455-4E0F-8C60-6729CE2C909C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11094,7 +11117,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.3125</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11111,7 +11134,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
@@ -11119,7 +11142,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11127,11 +11150,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>1 h 10 min</v>
+        <v>2 h 10 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.21875</v>
+        <v>0.34210526315789475</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11205,7 +11228,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.46875</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11257,7 +11280,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
@@ -11265,18 +11288,18 @@
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>5 h 20 min</v>
+        <v>6 h 20 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.22222222222222221</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991F1CB-9B97-4974-9B2E-34CC4C57BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A609BA89-82ED-4B6A-9BBE-A397DE370473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Auteur:</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>{"error":{"status":{"timestamp":"2025-09-12T12:30:06.778+00:00","error_code":10012,"error_message":"Your request exceeds the allowed time range. Public API users are limited to querying historical data within the past 365 days. Upgrade to a paid plan to enjoy full historical data access: https://www.coingecko.com/en/api/pricing. "}}}</t>
+  </si>
+  <si>
+    <t>Button import importation de json,  parsing json, pour créer un graphique,</t>
+  </si>
+  <si>
+    <t>features button import</t>
+  </si>
+  <si>
+    <t>JDT mis à jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> src/PTL_Crypto(PlotManager) gérer le graphique-apparence;  src/PTL_Crypto(ApiClient) reçoit des réponses(json)  par lien ,src/PTL_Crypto(Form1) Load crypto from main form using  textbox and buttons, </t>
+  </si>
+  <si>
+    <t>ApiClient,Form1,PlotManager</t>
   </si>
 </sst>
 </file>
@@ -1222,13 +1237,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2152,16 +2167,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.20618556701030927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34210526315789475</c:v>
+                  <c:v>0.46391752577319589</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39473684210526316</c:v>
+                  <c:v>0.32989690721649484</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4349,8 +4364,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4420,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>6 heures 20 minutes</v>
+        <v>8 heures 5 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4420,15 +4435,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>380</v>
+        <v>485</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4746,7 +4761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="63">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>37</v>
@@ -4754,11 +4769,21 @@
       <c r="B17" s="34">
         <v>45912</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="35">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36">
+        <v>20</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>55</v>
+      </c>
       <c r="O17">
         <v>45</v>
       </c>
@@ -4772,10 +4797,18 @@
         <v>45912</v>
       </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="39"/>
+      <c r="D18" s="32">
+        <v>15</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="O18">
         <v>50</v>
       </c>
@@ -4789,9 +4822,15 @@
         <v>45912</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="36">
+        <v>10</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="O19">
         <v>55</v>
@@ -11117,7 +11156,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.26315789473684209</v>
+        <v>0.20618556701030927</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11134,15 +11173,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11150,11 +11189,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>2 h 10 min</v>
+        <v>3 h 45 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.34210526315789475</v>
+        <v>0.46391752577319589</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11212,11 +11251,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11224,11 +11263,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>2 h 30 min</v>
+        <v>2 h 40 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.39473684210526316</v>
+        <v>0.32989690721649484</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11280,26 +11319,26 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>380</v>
+        <v>485</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>6 h 20 min</v>
+        <v>8 h 05 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.2638888888888889</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11343,15 +11382,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11360,6 +11390,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11564,14 +11603,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11580,6 +11611,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A609BA89-82ED-4B6A-9BBE-A397DE370473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918E42B-C25F-4CC5-874B-16F8314A71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Auteur:</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>ApiClient,Form1,PlotManager</t>
+  </si>
+  <si>
+    <t>https://scottplot.net/cookbook/4.1/category/plottable-scatter-plot/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code(FileClient class, Form1 )     -     Quand je démarre l’application, alors un graphique ScottPlot est visible. Le graphique affiche les prix du Bitcoin sur 7 jours (et autres crypto monaies) by default. </t>
+  </si>
+  <si>
+    <t>JUST info CSV import:   https://hackernoon.com/importing-exporting-csv-and-excel-xlsx-in-net-c-applications</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1246,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2167,16 +2176,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20618556701030927</c:v>
+                  <c:v>0.18018018018018017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46391752577319589</c:v>
+                  <c:v>0.53153153153153154</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32989690721649484</c:v>
+                  <c:v>0.28828828828828829</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4364,8 +4373,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4420,7 +4429,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>8 heures 5 minutes</v>
+        <v>9 heures 15 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4435,15 +4444,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4831,53 +4840,73 @@
       <c r="F19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="84"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="str">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="39"/>
+        <v>39</v>
+      </c>
+      <c r="B20" s="30">
+        <v>45926</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="32">
+        <v>10</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="str">
+      <c r="A21" s="63">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="34"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="34">
+        <v>45926</v>
+      </c>
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="23"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="str">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="30"/>
+        <v>39</v>
+      </c>
+      <c r="B22" s="30">
+        <v>45926</v>
+      </c>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="str">
+      <c r="A23" s="63">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="34"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="34">
+        <v>45926</v>
+      </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
@@ -11044,11 +11073,12 @@
     <hyperlink ref="G13" r:id="rId1" display="https://www.youtube.com/watch?v=HGF1fm1vmIk&amp;ab_channel=IndustrialITandAutomation" xr:uid="{336CBD97-FBE6-4DA0-92F1-7E19F61FE3AA}"/>
     <hyperlink ref="G12" r:id="rId2" xr:uid="{160CB3A4-60AC-4C67-9742-E843A97D81B7}"/>
     <hyperlink ref="G10" r:id="rId3" xr:uid="{0F91120E-3455-4E0F-8C60-6729CE2C909C}"/>
+    <hyperlink ref="G20" r:id="rId4" xr:uid="{4AC877DD-0538-4960-9300-3F6AF2D7E0D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11156,7 +11186,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.20618556701030927</v>
+        <v>0.18018018018018017</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11173,15 +11203,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11189,11 +11219,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>3 h 45 min</v>
+        <v>4 h 55 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.46391752577319589</v>
+        <v>0.53153153153153154</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11267,7 +11297,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.32989690721649484</v>
+        <v>0.28828828828828829</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11319,26 +11349,26 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>8 h 05 min</v>
+        <v>9 h 15 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.33680555555555558</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918E42B-C25F-4CC5-874B-16F8314A71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E100FE-1980-45BE-BD45-4A2749A3DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Auteur:</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>JUST info CSV import:   https://hackernoon.com/importing-exporting-csv-and-excel-xlsx-in-net-c-applications</t>
+  </si>
+  <si>
+    <t>code(PlotManager(for local and Api data))</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1249,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2176,16 +2179,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.18018018018018017</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53153153153153154</c:v>
+                  <c:v>0.54782608695652169</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28828828828828829</c:v>
+                  <c:v>0.27826086956521739</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4374,7 +4377,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4429,7 +4432,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>9 heures 15 minutes</v>
+        <v>9 heures 35 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4878,9 +4881,15 @@
         <v>45926</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="23"/>
+      <c r="D21" s="36">
+        <v>20</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
@@ -11186,7 +11195,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.18018018018018017</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11207,11 +11216,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11219,11 +11228,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>4 h 55 min</v>
+        <v>5 h 15 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.53153153153153154</v>
+        <v>0.54782608695652169</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11297,7 +11306,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.28828828828828829</v>
+        <v>0.27826086956521739</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11353,22 +11362,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>9 h 15 min</v>
+        <v>9 h 35 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.38541666666666669</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11412,6 +11421,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11420,15 +11438,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11633,6 +11642,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11641,14 +11658,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E100FE-1980-45BE-BD45-4A2749A3DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7ACE7-D441-4204-AC96-4459B82F543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Auteur:</t>
   </si>
@@ -221,10 +221,13 @@
     <t xml:space="preserve">code(FileClient class, Form1 )     -     Quand je démarre l’application, alors un graphique ScottPlot est visible. Le graphique affiche les prix du Bitcoin sur 7 jours (et autres crypto monaies) by default. </t>
   </si>
   <si>
-    <t>JUST info CSV import:   https://hackernoon.com/importing-exporting-csv-and-excel-xlsx-in-net-c-applications</t>
+    <t>code(PlotManager(for local and Api data))</t>
   </si>
   <si>
-    <t>code(PlotManager(for local and Api data))</t>
+    <t xml:space="preserve"> correction des erreurs version 4.0 -&gt; 5.0</t>
+  </si>
+  <si>
+    <t>representation des graphique coherent,Chore(JDT); code(PlotManager(Deleting,Restoring charts, Importing a JSON file))</t>
   </si>
 </sst>
 </file>
@@ -1249,13 +1252,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2179,16 +2182,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.17391304347826086</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54782608695652169</c:v>
+                  <c:v>0.578125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27826086956521739</c:v>
+                  <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4375,9 +4378,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4432,7 +4435,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>9 heures 35 minutes</v>
+        <v>10 heures 40 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4451,11 +4454,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4882,15 +4885,17 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="36">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E21" s="37" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
@@ -4901,12 +4906,16 @@
         <v>45926</v>
       </c>
       <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="D22" s="32">
+        <v>35</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="63">
@@ -4917,9 +4926,15 @@
         <v>45926</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="23"/>
+      <c r="D23" s="36">
+        <v>10</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -11195,7 +11210,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.17391304347826086</v>
+        <v>0.15625</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11216,11 +11231,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11228,11 +11243,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>5 h 15 min</v>
+        <v>6 h 10 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.54782608695652169</v>
+        <v>0.578125</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11290,11 +11305,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11302,11 +11317,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>2 h 40 min</v>
+        <v>2 h 50 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.27826086956521739</v>
+        <v>0.265625</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11362,22 +11377,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>9 h 35 min</v>
+        <v>10 h 40 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.39930555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11421,15 +11436,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11438,6 +11444,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11642,14 +11657,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11658,6 +11665,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7ACE7-D441-4204-AC96-4459B82F543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF36C0B-83DA-4961-9A86-1AD578E62255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Auteur:</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>representation des graphique coherent,Chore(JDT); code(PlotManager(Deleting,Restoring charts, Importing a JSON file))</t>
+  </si>
+  <si>
+    <t>recherche des crypto avec combobox,les messages clair qui informe d'un  problème ou réussit</t>
+  </si>
+  <si>
+    <t>src(Prototype API + combobox ), chore(JDT)</t>
   </si>
 </sst>
 </file>
@@ -1252,13 +1258,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2182,16 +2188,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.15625</c:v>
+                  <c:v>0.14492753623188406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.578125</c:v>
+                  <c:v>0.59420289855072461</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.265625</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4379,8 +4385,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4435,7 +4441,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>10 heures 40 minutes</v>
+        <v>11 heures 30 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4454,11 +4460,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4938,23 +4944,35 @@
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="str">
+      <c r="A24" s="62">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="30">
+        <v>45933</v>
+      </c>
       <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="39"/>
+      <c r="D24" s="32">
+        <v>40</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="str">
+      <c r="A25" s="63">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="B25" s="34">
+        <v>45933</v>
+      </c>
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
       <c r="E25" s="37"/>
@@ -4962,11 +4980,13 @@
       <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="str">
+      <c r="A26" s="62">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="30">
+        <v>45933</v>
+      </c>
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
@@ -4974,15 +4994,23 @@
       <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="str">
+      <c r="A27" s="63">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="34">
+        <v>45933</v>
+      </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="23"/>
+      <c r="D27" s="36">
+        <v>10</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -11210,7 +11238,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.15625</v>
+        <v>0.14492753623188406</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11231,11 +11259,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11243,11 +11271,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>6 h 10 min</v>
+        <v>6 h 50 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.578125</v>
+        <v>0.59420289855072461</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11305,11 +11333,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11317,11 +11345,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>2 h 50 min</v>
+        <v>3 h 00 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.265625</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11377,22 +11405,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>10 h 40 min</v>
+        <v>11 h 30 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.44444444444444442</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF36C0B-83DA-4961-9A86-1AD578E62255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E53081D-5587-4065-A466-DA4C26C665FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>Auteur:</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>src(Prototype API + combobox ), chore(JDT)</t>
+  </si>
+  <si>
+    <t>https://scottplot.net/cookbook/5.0/Scatter/    formsPlot1.Plot.Axes.DateTimeTicksBottom();</t>
+  </si>
+  <si>
+    <t>dans graphique les dates claires et correctes + try catch  pour éviter des erreurs leur fonctionnement d'api + Comments pour classes</t>
+  </si>
+  <si>
+    <t>revue des commentaires de prof correction et addaptation des erreurs</t>
+  </si>
+  <si>
+    <t>feedback</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1267,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2188,16 +2200,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.14492753623188406</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59420289855072461</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4386,7 +4398,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4441,7 +4453,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>11 heures 30 minutes</v>
+        <v>12 heures 30 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4460,11 +4472,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4953,16 +4965,16 @@
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -4974,12 +4986,20 @@
         <v>45933</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="36">
+        <v>50</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="62">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v>40</v>
@@ -4988,10 +5008,18 @@
         <v>45933</v>
       </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="32">
+        <v>30</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="63">
@@ -11222,11 +11250,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">SUM(A6:B6)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E6" s="70" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11234,11 +11262,11 @@
       </c>
       <c r="F6" s="71" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>1 h 40 min</v>
+        <v>2 h 00 min</v>
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.14492753623188406</v>
+        <v>0.16</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11259,11 +11287,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11271,11 +11299,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>6 h 50 min</v>
+        <v>7 h 30 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.59420289855072461</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11349,7 +11377,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.2608695652173913</v>
+        <v>0.24</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11405,22 +11433,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>11 h 30 min</v>
+        <v>12 h 30 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E53081D-5587-4065-A466-DA4C26C665FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE8644-B7ED-42B2-AA53-CF923B8A98DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Auteur:</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>feedback</t>
+  </si>
+  <si>
+    <t>unit test (CryptoPrice object)</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1276,7 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>180</c:v>
@@ -2200,16 +2203,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.57692307692307687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.8461538461538464E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4398,7 +4401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29:F30"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4453,7 +4456,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>12 heures 30 minutes</v>
+        <v>13 heures 0 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4472,11 +4475,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5031,26 +5034,34 @@
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="36">
+        <v>30</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="62">
+        <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
+        <v>40</v>
+      </c>
+      <c r="B28" s="30">
+        <v>45933</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32">
         <v>10</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="str">
-        <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="22"/>
       <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11266,7 +11277,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11303,7 +11314,7 @@
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.6</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11324,11 +11335,11 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8" s="76" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11336,11 +11347,11 @@
       </c>
       <c r="F8" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 00 min</v>
+        <v>0 h 30 min</v>
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11377,7 +11388,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11433,22 +11444,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>12 h 30 min</v>
+        <v>13 h 00 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11492,6 +11503,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11500,15 +11520,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11713,6 +11724,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11721,14 +11740,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE8644-B7ED-42B2-AA53-CF923B8A98DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF447E-D0EC-4247-8A37-D495A073ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="72" yWindow="0" windowWidth="14448" windowHeight="12336" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>Auteur:</t>
   </si>
@@ -249,6 +249,26 @@
   </si>
   <si>
     <t>unit test (CryptoPrice object)</t>
+  </si>
+  <si>
+    <t>delete textbox-&gt;use combobox. NoApi -&gt;localfiles . Downloading a list of coins from CoinGecko OR Local files in case of error with API</t>
+  </si>
+  <si>
+    <t>HashSet&lt;T&gt; is a collection of unique elements.
+The main property is that each element can only exist once.
+Quickly checks whether an element exists (Contains) – almost instantly, even with a large number of elements.
+Perfect if you need to store which cryptocurrencies are currently visible on the chart.    https://stackoverflow.com/questions/36923025/how-to-make-a-readonlycollection-from-a-hashset-without-copying-the-elements</t>
+  </si>
+  <si>
+    <t>Import and implementation of logic of adding, deleting and not seeing charts. 
+Method for updating a graph based on visibility
+- Replaced multiple redundant methods (LoadCryptoData, AddCrypto, etc.) 
+  with a single universal async method LoadOrAddCrypto().
+  → Handles all cases: API load, local JSON fallback, and imported files.
+  → Uses one consistent flow for adding crypto data and updating the plot.
+- Added automatic synchronization between loadedCryptos and CheckedListBox:
+  → When new crypto is loaded, it is added to CheckedListBox (checked by default).
+  → CheckedListBox now correctly controls which cryptos are visible on the chart.</t>
   </si>
 </sst>
 </file>
@@ -729,7 +749,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
@@ -1025,7 +1045,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1273,13 +1293,13 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1391,7 +1411,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1764,7 +1784,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2203,16 +2223,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.12307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57692307692307687</c:v>
+                  <c:v>0.6512820512820513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>3.0769230769230771E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.19487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4399,29 +4419,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.125" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="72.09765625" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.59765625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.59765625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -4432,7 +4452,7 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
@@ -4449,14 +4469,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>13 heures 0 minutes</v>
+        <v>16 heures 15 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4467,30 +4487,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="23.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>780</v>
+        <v>975</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C5" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="87"/>
     </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -4513,7 +4533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="61">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>35</v>
@@ -4533,7 +4553,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="78" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>35</v>
@@ -4564,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="63">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>35</v>
@@ -4595,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>35</v>
@@ -4626,7 +4646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="63">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>35</v>
@@ -4657,7 +4677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>36</v>
@@ -4688,7 +4708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="63">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>36</v>
@@ -4716,7 +4736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>36</v>
@@ -4744,7 +4764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="63">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>36</v>
@@ -4772,7 +4792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="78" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>37</v>
@@ -4797,7 +4817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="63">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>37</v>
@@ -4824,7 +4844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>37</v>
@@ -4849,7 +4869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="63">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>37</v>
@@ -4872,7 +4892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>39</v>
@@ -4896,7 +4916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="63">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>39</v>
@@ -4918,7 +4938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>39</v>
@@ -4938,7 +4958,7 @@
       </c>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="63">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v>39</v>
@@ -4958,7 +4978,7 @@
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v>40</v>
@@ -4980,7 +5000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="63">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v>40</v>
@@ -5002,7 +5022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v>40</v>
@@ -5024,7 +5044,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="63">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v>40</v>
@@ -5044,7 +5064,7 @@
       </c>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v>40</v>
@@ -5064,43 +5084,71 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="str">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="B29" s="34">
+        <v>45940</v>
+      </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="36">
+        <v>25</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="str">
+    <row r="30" spans="1:15" ht="156" x14ac:dyDescent="0.3">
+      <c r="A30" s="62">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="str">
+        <v>41</v>
+      </c>
+      <c r="B30" s="30">
+        <v>45940</v>
+      </c>
+      <c r="C30" s="31">
+        <v>2</v>
+      </c>
+      <c r="D30" s="32">
+        <v>40</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="63">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="B31" s="34">
+        <v>45940</v>
+      </c>
       <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="36">
+        <v>10</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G31" s="40"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -5112,7 +5160,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="63" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -5124,7 +5172,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="40"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -5136,7 +5184,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -5148,7 +5196,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="40"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="62" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -5160,7 +5208,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -5172,7 +5220,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="40"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="62" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -5184,7 +5232,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -5196,7 +5244,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="40"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="62" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -5208,7 +5256,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -5220,7 +5268,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -5232,7 +5280,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -5244,7 +5292,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="40"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="62" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -5256,7 +5304,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="63" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -5268,7 +5316,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="40"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -5280,7 +5328,7 @@
       <c r="F46" s="22"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -5292,7 +5340,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -5304,7 +5352,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -5316,7 +5364,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="62" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -5328,7 +5376,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -5340,7 +5388,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -5352,7 +5400,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -5364,7 +5412,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -5376,7 +5424,7 @@
       <c r="F54" s="22"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="63" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -5388,7 +5436,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="40"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -5400,7 +5448,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="63" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -5412,7 +5460,7 @@
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="62" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -5424,7 +5472,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="63" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -5436,7 +5484,7 @@
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -5448,7 +5496,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="63" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -5460,7 +5508,7 @@
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="62" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -5472,7 +5520,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="63" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -5484,7 +5532,7 @@
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="62" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -5496,7 +5544,7 @@
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="63" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -5508,7 +5556,7 @@
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="62" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -5520,7 +5568,7 @@
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="63" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -5532,7 +5580,7 @@
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="62" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -5544,7 +5592,7 @@
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="63" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -5556,7 +5604,7 @@
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="62" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -5568,7 +5616,7 @@
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="63" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -5580,7 +5628,7 @@
       <c r="F71" s="40"/>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="62" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -5592,7 +5640,7 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="63" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -5604,7 +5652,7 @@
       <c r="F73" s="40"/>
       <c r="G73" s="40"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="62" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -5616,7 +5664,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="63" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -5628,7 +5676,7 @@
       <c r="F75" s="40"/>
       <c r="G75" s="40"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="62" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -5640,7 +5688,7 @@
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="63" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -5652,7 +5700,7 @@
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="62" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -5664,7 +5712,7 @@
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="63" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -5676,7 +5724,7 @@
       <c r="F79" s="40"/>
       <c r="G79" s="40"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="62" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -5688,7 +5736,7 @@
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="63" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -5700,7 +5748,7 @@
       <c r="F81" s="40"/>
       <c r="G81" s="40"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="62" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -5712,7 +5760,7 @@
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="63" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -5724,7 +5772,7 @@
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="62" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -5736,7 +5784,7 @@
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="63" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -5748,7 +5796,7 @@
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="62" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -5760,7 +5808,7 @@
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="63" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -5772,7 +5820,7 @@
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="62" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -5784,7 +5832,7 @@
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="63" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -5796,7 +5844,7 @@
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="62" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -5808,7 +5856,7 @@
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="63" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -5820,7 +5868,7 @@
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="62" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -5832,7 +5880,7 @@
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="63" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -5844,7 +5892,7 @@
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="62" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -5856,7 +5904,7 @@
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="63" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -5868,7 +5916,7 @@
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="62" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -5880,7 +5928,7 @@
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="63" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -5892,7 +5940,7 @@
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="62" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -5904,7 +5952,7 @@
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="63" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -5916,7 +5964,7 @@
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="62" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -5928,7 +5976,7 @@
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="63" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -5940,7 +5988,7 @@
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="62" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -5952,7 +6000,7 @@
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="63" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -5964,7 +6012,7 @@
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="62" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -5976,7 +6024,7 @@
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="63" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -5988,7 +6036,7 @@
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="62" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -6000,7 +6048,7 @@
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="63" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -6012,7 +6060,7 @@
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="62" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -6024,7 +6072,7 @@
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="63" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -6036,7 +6084,7 @@
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="62" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -6048,7 +6096,7 @@
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="63" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -6060,7 +6108,7 @@
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="62" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -6072,7 +6120,7 @@
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="63" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -6084,7 +6132,7 @@
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="62" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -6096,7 +6144,7 @@
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="63" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -6108,7 +6156,7 @@
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="62" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -6120,7 +6168,7 @@
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="63" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -6132,7 +6180,7 @@
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="62" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -6144,7 +6192,7 @@
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="63" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -6156,7 +6204,7 @@
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="62" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -6168,7 +6216,7 @@
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="63" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -6180,7 +6228,7 @@
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="62" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -6192,7 +6240,7 @@
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="63" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -6204,7 +6252,7 @@
       <c r="F123" s="40"/>
       <c r="G123" s="40"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="62" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -6216,7 +6264,7 @@
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="63" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -6228,7 +6276,7 @@
       <c r="F125" s="40"/>
       <c r="G125" s="40"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="62" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -6240,7 +6288,7 @@
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="63" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -6252,7 +6300,7 @@
       <c r="F127" s="40"/>
       <c r="G127" s="40"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="62" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -6264,7 +6312,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="63" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -6276,7 +6324,7 @@
       <c r="F129" s="40"/>
       <c r="G129" s="40"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="62" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -6288,7 +6336,7 @@
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="63" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -6300,7 +6348,7 @@
       <c r="F131" s="40"/>
       <c r="G131" s="40"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="62" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -6312,7 +6360,7 @@
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="63" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -6324,7 +6372,7 @@
       <c r="F133" s="40"/>
       <c r="G133" s="40"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="62" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -6336,7 +6384,7 @@
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="63" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -6348,7 +6396,7 @@
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="62" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -6360,7 +6408,7 @@
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="63" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -6372,7 +6420,7 @@
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="62" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -6384,7 +6432,7 @@
       <c r="F138" s="39"/>
       <c r="G138" s="39"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="63" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -6396,7 +6444,7 @@
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="62" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -6408,7 +6456,7 @@
       <c r="F140" s="39"/>
       <c r="G140" s="39"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="63" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -6420,7 +6468,7 @@
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="62" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -6432,7 +6480,7 @@
       <c r="F142" s="39"/>
       <c r="G142" s="39"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="63" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -6444,7 +6492,7 @@
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="62" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -6456,7 +6504,7 @@
       <c r="F144" s="39"/>
       <c r="G144" s="39"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="63" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -6468,7 +6516,7 @@
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="62" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -6480,7 +6528,7 @@
       <c r="F146" s="39"/>
       <c r="G146" s="39"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="63" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -6492,7 +6540,7 @@
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="62" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -6504,7 +6552,7 @@
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="63" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -6516,7 +6564,7 @@
       <c r="F149" s="40"/>
       <c r="G149" s="40"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="62" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -6528,7 +6576,7 @@
       <c r="F150" s="39"/>
       <c r="G150" s="39"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="63" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -6540,7 +6588,7 @@
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="62" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -6552,7 +6600,7 @@
       <c r="F152" s="39"/>
       <c r="G152" s="39"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="63" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -6564,7 +6612,7 @@
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="62" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -6576,7 +6624,7 @@
       <c r="F154" s="39"/>
       <c r="G154" s="39"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="63" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -6588,7 +6636,7 @@
       <c r="F155" s="40"/>
       <c r="G155" s="40"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="62" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -6600,7 +6648,7 @@
       <c r="F156" s="39"/>
       <c r="G156" s="39"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="63" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -6612,7 +6660,7 @@
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="62" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -6624,7 +6672,7 @@
       <c r="F158" s="39"/>
       <c r="G158" s="39"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="63" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -6636,7 +6684,7 @@
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="62" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -6648,7 +6696,7 @@
       <c r="F160" s="39"/>
       <c r="G160" s="39"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="63" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -6660,7 +6708,7 @@
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="62" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -6672,7 +6720,7 @@
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="63" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -6684,7 +6732,7 @@
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="62" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -6696,7 +6744,7 @@
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="63" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -6708,7 +6756,7 @@
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="62" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -6720,7 +6768,7 @@
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="63" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -6732,7 +6780,7 @@
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="62" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -6744,7 +6792,7 @@
       <c r="F168" s="39"/>
       <c r="G168" s="39"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="63" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -6756,7 +6804,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="40"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="62" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -6768,7 +6816,7 @@
       <c r="F170" s="39"/>
       <c r="G170" s="39"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="63" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -6780,7 +6828,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="62" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -6792,7 +6840,7 @@
       <c r="F172" s="39"/>
       <c r="G172" s="39"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="63" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -6804,7 +6852,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="40"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="62" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -6816,7 +6864,7 @@
       <c r="F174" s="39"/>
       <c r="G174" s="39"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="63" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -6828,7 +6876,7 @@
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="62" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -6840,7 +6888,7 @@
       <c r="F176" s="39"/>
       <c r="G176" s="39"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="63" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -6852,7 +6900,7 @@
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="62" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -6864,7 +6912,7 @@
       <c r="F178" s="39"/>
       <c r="G178" s="39"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="63" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -6876,7 +6924,7 @@
       <c r="F179" s="40"/>
       <c r="G179" s="40"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="62" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -6888,7 +6936,7 @@
       <c r="F180" s="39"/>
       <c r="G180" s="39"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="63" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -6900,7 +6948,7 @@
       <c r="F181" s="40"/>
       <c r="G181" s="40"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="62" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -6912,7 +6960,7 @@
       <c r="F182" s="39"/>
       <c r="G182" s="39"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="63" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -6924,7 +6972,7 @@
       <c r="F183" s="40"/>
       <c r="G183" s="40"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="62" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -6936,7 +6984,7 @@
       <c r="F184" s="39"/>
       <c r="G184" s="39"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="63" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -6948,7 +6996,7 @@
       <c r="F185" s="40"/>
       <c r="G185" s="40"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="62" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -6960,7 +7008,7 @@
       <c r="F186" s="39"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="63" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -6972,7 +7020,7 @@
       <c r="F187" s="40"/>
       <c r="G187" s="40"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="62" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -6984,7 +7032,7 @@
       <c r="F188" s="39"/>
       <c r="G188" s="39"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="63" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -6996,7 +7044,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="40"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="62" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -7008,7 +7056,7 @@
       <c r="F190" s="39"/>
       <c r="G190" s="39"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="63" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -7020,7 +7068,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="40"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="62" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -7032,7 +7080,7 @@
       <c r="F192" s="39"/>
       <c r="G192" s="39"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="63" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -7044,7 +7092,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="40"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="62" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -7056,7 +7104,7 @@
       <c r="F194" s="39"/>
       <c r="G194" s="39"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="63" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -7068,7 +7116,7 @@
       <c r="F195" s="40"/>
       <c r="G195" s="40"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="62" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -7080,7 +7128,7 @@
       <c r="F196" s="39"/>
       <c r="G196" s="39"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="63" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -7092,7 +7140,7 @@
       <c r="F197" s="40"/>
       <c r="G197" s="40"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="62" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -7104,7 +7152,7 @@
       <c r="F198" s="39"/>
       <c r="G198" s="39"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="63" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -7116,7 +7164,7 @@
       <c r="F199" s="40"/>
       <c r="G199" s="40"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="62" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -7128,7 +7176,7 @@
       <c r="F200" s="39"/>
       <c r="G200" s="39"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="63" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -7140,7 +7188,7 @@
       <c r="F201" s="40"/>
       <c r="G201" s="40"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="62" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -7152,7 +7200,7 @@
       <c r="F202" s="39"/>
       <c r="G202" s="39"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="63" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -7164,7 +7212,7 @@
       <c r="F203" s="40"/>
       <c r="G203" s="40"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="62" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -7176,7 +7224,7 @@
       <c r="F204" s="39"/>
       <c r="G204" s="39"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="63" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -7188,7 +7236,7 @@
       <c r="F205" s="40"/>
       <c r="G205" s="40"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="62" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -7200,7 +7248,7 @@
       <c r="F206" s="39"/>
       <c r="G206" s="39"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="63" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -7212,7 +7260,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="40"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="62" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -7224,7 +7272,7 @@
       <c r="F208" s="39"/>
       <c r="G208" s="39"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="63" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -7236,7 +7284,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="40"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="62" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -7248,7 +7296,7 @@
       <c r="F210" s="39"/>
       <c r="G210" s="39"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="63" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -7260,7 +7308,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="40"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="62" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -7272,7 +7320,7 @@
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="63" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -7284,7 +7332,7 @@
       <c r="F213" s="40"/>
       <c r="G213" s="40"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="62" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -7296,7 +7344,7 @@
       <c r="F214" s="39"/>
       <c r="G214" s="39"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="63" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -7308,7 +7356,7 @@
       <c r="F215" s="40"/>
       <c r="G215" s="40"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="62" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -7320,7 +7368,7 @@
       <c r="F216" s="39"/>
       <c r="G216" s="39"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="63" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -7332,7 +7380,7 @@
       <c r="F217" s="40"/>
       <c r="G217" s="40"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="62" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -7344,7 +7392,7 @@
       <c r="F218" s="39"/>
       <c r="G218" s="39"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="63" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -7356,7 +7404,7 @@
       <c r="F219" s="40"/>
       <c r="G219" s="40"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="62" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -7368,7 +7416,7 @@
       <c r="F220" s="39"/>
       <c r="G220" s="39"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="63" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -7380,7 +7428,7 @@
       <c r="F221" s="40"/>
       <c r="G221" s="40"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="62" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -7392,7 +7440,7 @@
       <c r="F222" s="39"/>
       <c r="G222" s="39"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="63" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -7404,7 +7452,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="40"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="62" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -7416,7 +7464,7 @@
       <c r="F224" s="39"/>
       <c r="G224" s="39"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="63" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -7428,7 +7476,7 @@
       <c r="F225" s="40"/>
       <c r="G225" s="40"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="62" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -7440,7 +7488,7 @@
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="63" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -7452,7 +7500,7 @@
       <c r="F227" s="40"/>
       <c r="G227" s="40"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="62" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -7464,7 +7512,7 @@
       <c r="F228" s="39"/>
       <c r="G228" s="39"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="63" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -7476,7 +7524,7 @@
       <c r="F229" s="40"/>
       <c r="G229" s="40"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="62" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -7488,7 +7536,7 @@
       <c r="F230" s="39"/>
       <c r="G230" s="39"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="63" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -7500,7 +7548,7 @@
       <c r="F231" s="40"/>
       <c r="G231" s="40"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="62" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -7512,7 +7560,7 @@
       <c r="F232" s="39"/>
       <c r="G232" s="39"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="63" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -7524,7 +7572,7 @@
       <c r="F233" s="40"/>
       <c r="G233" s="40"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="62" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -7536,7 +7584,7 @@
       <c r="F234" s="39"/>
       <c r="G234" s="39"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="63" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -7548,7 +7596,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="40"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="62" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -7560,7 +7608,7 @@
       <c r="F236" s="39"/>
       <c r="G236" s="39"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="63" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -7572,7 +7620,7 @@
       <c r="F237" s="40"/>
       <c r="G237" s="40"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="62" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -7584,7 +7632,7 @@
       <c r="F238" s="39"/>
       <c r="G238" s="39"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="63" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -7596,7 +7644,7 @@
       <c r="F239" s="40"/>
       <c r="G239" s="40"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="62" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -7608,7 +7656,7 @@
       <c r="F240" s="39"/>
       <c r="G240" s="39"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="63" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -7620,7 +7668,7 @@
       <c r="F241" s="40"/>
       <c r="G241" s="40"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="62" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -7632,7 +7680,7 @@
       <c r="F242" s="39"/>
       <c r="G242" s="39"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="63" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -7644,7 +7692,7 @@
       <c r="F243" s="40"/>
       <c r="G243" s="40"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="62" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -7656,7 +7704,7 @@
       <c r="F244" s="39"/>
       <c r="G244" s="39"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="63" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -7668,7 +7716,7 @@
       <c r="F245" s="40"/>
       <c r="G245" s="40"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="62" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -7680,7 +7728,7 @@
       <c r="F246" s="39"/>
       <c r="G246" s="39"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="63" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -7692,7 +7740,7 @@
       <c r="F247" s="40"/>
       <c r="G247" s="40"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="62" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -7704,7 +7752,7 @@
       <c r="F248" s="39"/>
       <c r="G248" s="39"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="63" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -7716,7 +7764,7 @@
       <c r="F249" s="40"/>
       <c r="G249" s="40"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="62" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -7728,7 +7776,7 @@
       <c r="F250" s="39"/>
       <c r="G250" s="39"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="63" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -7740,7 +7788,7 @@
       <c r="F251" s="40"/>
       <c r="G251" s="40"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="62" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -7752,7 +7800,7 @@
       <c r="F252" s="39"/>
       <c r="G252" s="39"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="63" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -7764,7 +7812,7 @@
       <c r="F253" s="40"/>
       <c r="G253" s="40"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="62" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -7776,7 +7824,7 @@
       <c r="F254" s="39"/>
       <c r="G254" s="39"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="63" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -7788,7 +7836,7 @@
       <c r="F255" s="40"/>
       <c r="G255" s="40"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="62" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -7800,7 +7848,7 @@
       <c r="F256" s="39"/>
       <c r="G256" s="39"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="63" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -7812,7 +7860,7 @@
       <c r="F257" s="40"/>
       <c r="G257" s="40"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="62" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -7824,7 +7872,7 @@
       <c r="F258" s="39"/>
       <c r="G258" s="39"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="63" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -7836,7 +7884,7 @@
       <c r="F259" s="40"/>
       <c r="G259" s="40"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="62" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -7848,7 +7896,7 @@
       <c r="F260" s="39"/>
       <c r="G260" s="39"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="63" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -7860,7 +7908,7 @@
       <c r="F261" s="40"/>
       <c r="G261" s="40"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="62" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -7872,7 +7920,7 @@
       <c r="F262" s="39"/>
       <c r="G262" s="39"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="63" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -7884,7 +7932,7 @@
       <c r="F263" s="40"/>
       <c r="G263" s="40"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="62" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -7896,7 +7944,7 @@
       <c r="F264" s="39"/>
       <c r="G264" s="39"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="63" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -7908,7 +7956,7 @@
       <c r="F265" s="40"/>
       <c r="G265" s="40"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="62" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -7920,7 +7968,7 @@
       <c r="F266" s="39"/>
       <c r="G266" s="39"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="63" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -7932,7 +7980,7 @@
       <c r="F267" s="40"/>
       <c r="G267" s="40"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="62" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -7944,7 +7992,7 @@
       <c r="F268" s="39"/>
       <c r="G268" s="39"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="63" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -7956,7 +8004,7 @@
       <c r="F269" s="40"/>
       <c r="G269" s="40"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="62" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -7968,7 +8016,7 @@
       <c r="F270" s="39"/>
       <c r="G270" s="39"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="63" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -7980,7 +8028,7 @@
       <c r="F271" s="40"/>
       <c r="G271" s="40"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="62" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -7992,7 +8040,7 @@
       <c r="F272" s="39"/>
       <c r="G272" s="39"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="63" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -8004,7 +8052,7 @@
       <c r="F273" s="40"/>
       <c r="G273" s="40"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="62" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -8016,7 +8064,7 @@
       <c r="F274" s="39"/>
       <c r="G274" s="39"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="63" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -8028,7 +8076,7 @@
       <c r="F275" s="40"/>
       <c r="G275" s="40"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="62" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -8040,7 +8088,7 @@
       <c r="F276" s="39"/>
       <c r="G276" s="39"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="63" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -8052,7 +8100,7 @@
       <c r="F277" s="40"/>
       <c r="G277" s="40"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="62" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -8064,7 +8112,7 @@
       <c r="F278" s="39"/>
       <c r="G278" s="39"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="63" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -8076,7 +8124,7 @@
       <c r="F279" s="40"/>
       <c r="G279" s="40"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="62" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -8088,7 +8136,7 @@
       <c r="F280" s="39"/>
       <c r="G280" s="39"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="63" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -8100,7 +8148,7 @@
       <c r="F281" s="40"/>
       <c r="G281" s="40"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="62" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -8112,7 +8160,7 @@
       <c r="F282" s="39"/>
       <c r="G282" s="39"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="63" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -8124,7 +8172,7 @@
       <c r="F283" s="40"/>
       <c r="G283" s="40"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="62" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -8136,7 +8184,7 @@
       <c r="F284" s="39"/>
       <c r="G284" s="39"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="63" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -8148,7 +8196,7 @@
       <c r="F285" s="40"/>
       <c r="G285" s="40"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="62" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -8160,7 +8208,7 @@
       <c r="F286" s="39"/>
       <c r="G286" s="39"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="63" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -8172,7 +8220,7 @@
       <c r="F287" s="40"/>
       <c r="G287" s="40"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="62" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -8184,7 +8232,7 @@
       <c r="F288" s="39"/>
       <c r="G288" s="39"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="63" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -8196,7 +8244,7 @@
       <c r="F289" s="40"/>
       <c r="G289" s="40"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="62" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -8208,7 +8256,7 @@
       <c r="F290" s="39"/>
       <c r="G290" s="39"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="63" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -8220,7 +8268,7 @@
       <c r="F291" s="40"/>
       <c r="G291" s="40"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="62" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -8232,7 +8280,7 @@
       <c r="F292" s="39"/>
       <c r="G292" s="39"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="63" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -8244,7 +8292,7 @@
       <c r="F293" s="40"/>
       <c r="G293" s="40"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="62" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -8256,7 +8304,7 @@
       <c r="F294" s="39"/>
       <c r="G294" s="39"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="63" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -8268,7 +8316,7 @@
       <c r="F295" s="40"/>
       <c r="G295" s="40"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="62" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -8280,7 +8328,7 @@
       <c r="F296" s="39"/>
       <c r="G296" s="39"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="63" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -8292,7 +8340,7 @@
       <c r="F297" s="40"/>
       <c r="G297" s="40"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="62" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -8304,7 +8352,7 @@
       <c r="F298" s="39"/>
       <c r="G298" s="39"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="63" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -8316,7 +8364,7 @@
       <c r="F299" s="40"/>
       <c r="G299" s="40"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="62" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -8328,7 +8376,7 @@
       <c r="F300" s="39"/>
       <c r="G300" s="39"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="63" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -8340,7 +8388,7 @@
       <c r="F301" s="40"/>
       <c r="G301" s="40"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="62" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -8352,7 +8400,7 @@
       <c r="F302" s="39"/>
       <c r="G302" s="39"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="63" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -8364,7 +8412,7 @@
       <c r="F303" s="40"/>
       <c r="G303" s="40"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="62" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -8376,7 +8424,7 @@
       <c r="F304" s="39"/>
       <c r="G304" s="39"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="63" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -8388,7 +8436,7 @@
       <c r="F305" s="40"/>
       <c r="G305" s="40"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="62" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -8400,7 +8448,7 @@
       <c r="F306" s="39"/>
       <c r="G306" s="39"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="63" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -8412,7 +8460,7 @@
       <c r="F307" s="40"/>
       <c r="G307" s="40"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="62" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -8424,7 +8472,7 @@
       <c r="F308" s="39"/>
       <c r="G308" s="39"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="63" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -8436,7 +8484,7 @@
       <c r="F309" s="40"/>
       <c r="G309" s="40"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="62" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -8448,7 +8496,7 @@
       <c r="F310" s="39"/>
       <c r="G310" s="39"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="63" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -8460,7 +8508,7 @@
       <c r="F311" s="40"/>
       <c r="G311" s="40"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="62" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -8472,7 +8520,7 @@
       <c r="F312" s="39"/>
       <c r="G312" s="39"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="63" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -8484,7 +8532,7 @@
       <c r="F313" s="40"/>
       <c r="G313" s="40"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="62" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -8496,7 +8544,7 @@
       <c r="F314" s="39"/>
       <c r="G314" s="39"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="63" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -8508,7 +8556,7 @@
       <c r="F315" s="40"/>
       <c r="G315" s="40"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="62" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -8520,7 +8568,7 @@
       <c r="F316" s="39"/>
       <c r="G316" s="39"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="63" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -8532,7 +8580,7 @@
       <c r="F317" s="40"/>
       <c r="G317" s="40"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="62" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -8544,7 +8592,7 @@
       <c r="F318" s="39"/>
       <c r="G318" s="39"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="63" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -8556,7 +8604,7 @@
       <c r="F319" s="40"/>
       <c r="G319" s="40"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="62" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -8568,7 +8616,7 @@
       <c r="F320" s="39"/>
       <c r="G320" s="39"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="63" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -8580,7 +8628,7 @@
       <c r="F321" s="40"/>
       <c r="G321" s="40"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="62" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -8592,7 +8640,7 @@
       <c r="F322" s="39"/>
       <c r="G322" s="39"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="63" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -8604,7 +8652,7 @@
       <c r="F323" s="40"/>
       <c r="G323" s="40"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="62" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -8616,7 +8664,7 @@
       <c r="F324" s="39"/>
       <c r="G324" s="39"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="63" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -8628,7 +8676,7 @@
       <c r="F325" s="40"/>
       <c r="G325" s="40"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="62" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -8640,7 +8688,7 @@
       <c r="F326" s="39"/>
       <c r="G326" s="39"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="63" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -8652,7 +8700,7 @@
       <c r="F327" s="40"/>
       <c r="G327" s="40"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="62" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -8664,7 +8712,7 @@
       <c r="F328" s="39"/>
       <c r="G328" s="39"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="63" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -8676,7 +8724,7 @@
       <c r="F329" s="40"/>
       <c r="G329" s="40"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="62" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -8688,7 +8736,7 @@
       <c r="F330" s="39"/>
       <c r="G330" s="39"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="63" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -8700,7 +8748,7 @@
       <c r="F331" s="40"/>
       <c r="G331" s="40"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="62" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -8712,7 +8760,7 @@
       <c r="F332" s="39"/>
       <c r="G332" s="39"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="63" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -8724,7 +8772,7 @@
       <c r="F333" s="40"/>
       <c r="G333" s="40"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="62" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -8736,7 +8784,7 @@
       <c r="F334" s="39"/>
       <c r="G334" s="39"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="63" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -8748,7 +8796,7 @@
       <c r="F335" s="40"/>
       <c r="G335" s="40"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="62" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -8760,7 +8808,7 @@
       <c r="F336" s="39"/>
       <c r="G336" s="39"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="63" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -8772,7 +8820,7 @@
       <c r="F337" s="40"/>
       <c r="G337" s="40"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="62" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -8784,7 +8832,7 @@
       <c r="F338" s="39"/>
       <c r="G338" s="39"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="63" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -8796,7 +8844,7 @@
       <c r="F339" s="40"/>
       <c r="G339" s="40"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="62" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -8808,7 +8856,7 @@
       <c r="F340" s="39"/>
       <c r="G340" s="39"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="63" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -8820,7 +8868,7 @@
       <c r="F341" s="40"/>
       <c r="G341" s="40"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="62" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -8832,7 +8880,7 @@
       <c r="F342" s="39"/>
       <c r="G342" s="39"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="63" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -8844,7 +8892,7 @@
       <c r="F343" s="40"/>
       <c r="G343" s="40"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="62" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -8856,7 +8904,7 @@
       <c r="F344" s="39"/>
       <c r="G344" s="39"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="63" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -8868,7 +8916,7 @@
       <c r="F345" s="40"/>
       <c r="G345" s="40"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="62" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -8880,7 +8928,7 @@
       <c r="F346" s="39"/>
       <c r="G346" s="39"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="63" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -8892,7 +8940,7 @@
       <c r="F347" s="40"/>
       <c r="G347" s="40"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="62" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -8904,7 +8952,7 @@
       <c r="F348" s="39"/>
       <c r="G348" s="39"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="63" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -8916,7 +8964,7 @@
       <c r="F349" s="40"/>
       <c r="G349" s="40"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="62" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -8928,7 +8976,7 @@
       <c r="F350" s="39"/>
       <c r="G350" s="39"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="63" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -8940,7 +8988,7 @@
       <c r="F351" s="40"/>
       <c r="G351" s="40"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="62" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -8952,7 +9000,7 @@
       <c r="F352" s="39"/>
       <c r="G352" s="39"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="63" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -8964,7 +9012,7 @@
       <c r="F353" s="40"/>
       <c r="G353" s="40"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="62" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -8976,7 +9024,7 @@
       <c r="F354" s="39"/>
       <c r="G354" s="39"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="63" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -8988,7 +9036,7 @@
       <c r="F355" s="40"/>
       <c r="G355" s="40"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="62" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -9000,7 +9048,7 @@
       <c r="F356" s="39"/>
       <c r="G356" s="39"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="63" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -9012,7 +9060,7 @@
       <c r="F357" s="40"/>
       <c r="G357" s="40"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="62" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -9024,7 +9072,7 @@
       <c r="F358" s="39"/>
       <c r="G358" s="39"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="63" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -9036,7 +9084,7 @@
       <c r="F359" s="40"/>
       <c r="G359" s="40"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="62" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -9048,7 +9096,7 @@
       <c r="F360" s="39"/>
       <c r="G360" s="39"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="63" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -9060,7 +9108,7 @@
       <c r="F361" s="40"/>
       <c r="G361" s="40"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="62" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -9072,7 +9120,7 @@
       <c r="F362" s="39"/>
       <c r="G362" s="39"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="63" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -9084,7 +9132,7 @@
       <c r="F363" s="40"/>
       <c r="G363" s="40"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="62" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -9096,7 +9144,7 @@
       <c r="F364" s="39"/>
       <c r="G364" s="39"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="63" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -9108,7 +9156,7 @@
       <c r="F365" s="40"/>
       <c r="G365" s="40"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="62" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -9120,7 +9168,7 @@
       <c r="F366" s="39"/>
       <c r="G366" s="39"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="63" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -9132,7 +9180,7 @@
       <c r="F367" s="40"/>
       <c r="G367" s="40"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="62" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -9144,7 +9192,7 @@
       <c r="F368" s="39"/>
       <c r="G368" s="39"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="63" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -9156,7 +9204,7 @@
       <c r="F369" s="40"/>
       <c r="G369" s="40"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="62" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -9168,7 +9216,7 @@
       <c r="F370" s="39"/>
       <c r="G370" s="39"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="63" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -9180,7 +9228,7 @@
       <c r="F371" s="40"/>
       <c r="G371" s="40"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="62" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -9192,7 +9240,7 @@
       <c r="F372" s="39"/>
       <c r="G372" s="39"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="63" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -9204,7 +9252,7 @@
       <c r="F373" s="40"/>
       <c r="G373" s="40"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="62" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -9216,7 +9264,7 @@
       <c r="F374" s="39"/>
       <c r="G374" s="39"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="63" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -9228,7 +9276,7 @@
       <c r="F375" s="40"/>
       <c r="G375" s="40"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="62" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -9240,7 +9288,7 @@
       <c r="F376" s="39"/>
       <c r="G376" s="39"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="63" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -9252,7 +9300,7 @@
       <c r="F377" s="40"/>
       <c r="G377" s="40"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="62" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -9264,7 +9312,7 @@
       <c r="F378" s="39"/>
       <c r="G378" s="39"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="63" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -9276,7 +9324,7 @@
       <c r="F379" s="40"/>
       <c r="G379" s="40"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="62" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -9288,7 +9336,7 @@
       <c r="F380" s="39"/>
       <c r="G380" s="39"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="63" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -9300,7 +9348,7 @@
       <c r="F381" s="40"/>
       <c r="G381" s="40"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="62" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -9312,7 +9360,7 @@
       <c r="F382" s="39"/>
       <c r="G382" s="39"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="63" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -9324,7 +9372,7 @@
       <c r="F383" s="40"/>
       <c r="G383" s="40"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="62" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -9336,7 +9384,7 @@
       <c r="F384" s="39"/>
       <c r="G384" s="39"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="63" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -9348,7 +9396,7 @@
       <c r="F385" s="40"/>
       <c r="G385" s="40"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="62" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -9360,7 +9408,7 @@
       <c r="F386" s="39"/>
       <c r="G386" s="39"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="63" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -9372,7 +9420,7 @@
       <c r="F387" s="40"/>
       <c r="G387" s="40"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="62" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -9384,7 +9432,7 @@
       <c r="F388" s="39"/>
       <c r="G388" s="39"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="63" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -9396,7 +9444,7 @@
       <c r="F389" s="40"/>
       <c r="G389" s="40"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="62" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -9408,7 +9456,7 @@
       <c r="F390" s="39"/>
       <c r="G390" s="39"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="63" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -9420,7 +9468,7 @@
       <c r="F391" s="40"/>
       <c r="G391" s="40"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="62" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -9432,7 +9480,7 @@
       <c r="F392" s="39"/>
       <c r="G392" s="39"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="63" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -9444,7 +9492,7 @@
       <c r="F393" s="40"/>
       <c r="G393" s="40"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="62" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -9456,7 +9504,7 @@
       <c r="F394" s="39"/>
       <c r="G394" s="39"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="63" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -9468,7 +9516,7 @@
       <c r="F395" s="40"/>
       <c r="G395" s="40"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="62" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -9480,7 +9528,7 @@
       <c r="F396" s="39"/>
       <c r="G396" s="39"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="63" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -9492,7 +9540,7 @@
       <c r="F397" s="40"/>
       <c r="G397" s="40"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="62" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -9504,7 +9552,7 @@
       <c r="F398" s="39"/>
       <c r="G398" s="39"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="63" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -9516,7 +9564,7 @@
       <c r="F399" s="40"/>
       <c r="G399" s="40"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="62" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -9528,7 +9576,7 @@
       <c r="F400" s="39"/>
       <c r="G400" s="39"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="63" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -9540,7 +9588,7 @@
       <c r="F401" s="40"/>
       <c r="G401" s="40"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="62" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -9552,7 +9600,7 @@
       <c r="F402" s="39"/>
       <c r="G402" s="39"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="63" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -9564,7 +9612,7 @@
       <c r="F403" s="40"/>
       <c r="G403" s="40"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="62" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -9576,7 +9624,7 @@
       <c r="F404" s="39"/>
       <c r="G404" s="39"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="63" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -9588,7 +9636,7 @@
       <c r="F405" s="40"/>
       <c r="G405" s="40"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="62" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -9600,7 +9648,7 @@
       <c r="F406" s="39"/>
       <c r="G406" s="39"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="63" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -9612,7 +9660,7 @@
       <c r="F407" s="40"/>
       <c r="G407" s="40"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="62" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -9624,7 +9672,7 @@
       <c r="F408" s="39"/>
       <c r="G408" s="39"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="63" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -9636,7 +9684,7 @@
       <c r="F409" s="40"/>
       <c r="G409" s="40"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="62" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -9648,7 +9696,7 @@
       <c r="F410" s="39"/>
       <c r="G410" s="39"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="63" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -9660,7 +9708,7 @@
       <c r="F411" s="40"/>
       <c r="G411" s="40"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="62" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -9672,7 +9720,7 @@
       <c r="F412" s="39"/>
       <c r="G412" s="39"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="63" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -9684,7 +9732,7 @@
       <c r="F413" s="40"/>
       <c r="G413" s="40"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="62" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -9696,7 +9744,7 @@
       <c r="F414" s="39"/>
       <c r="G414" s="39"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="63" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -9708,7 +9756,7 @@
       <c r="F415" s="40"/>
       <c r="G415" s="40"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="62" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -9720,7 +9768,7 @@
       <c r="F416" s="39"/>
       <c r="G416" s="39"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="63" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -9732,7 +9780,7 @@
       <c r="F417" s="40"/>
       <c r="G417" s="40"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="62" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -9744,7 +9792,7 @@
       <c r="F418" s="39"/>
       <c r="G418" s="39"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="63" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -9756,7 +9804,7 @@
       <c r="F419" s="40"/>
       <c r="G419" s="40"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="62" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -9768,7 +9816,7 @@
       <c r="F420" s="39"/>
       <c r="G420" s="39"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="63" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -9780,7 +9828,7 @@
       <c r="F421" s="40"/>
       <c r="G421" s="40"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="62" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -9792,7 +9840,7 @@
       <c r="F422" s="39"/>
       <c r="G422" s="39"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="63" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -9804,7 +9852,7 @@
       <c r="F423" s="40"/>
       <c r="G423" s="40"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="62" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -9816,7 +9864,7 @@
       <c r="F424" s="39"/>
       <c r="G424" s="39"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="63" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -9828,7 +9876,7 @@
       <c r="F425" s="40"/>
       <c r="G425" s="40"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="62" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -9840,7 +9888,7 @@
       <c r="F426" s="39"/>
       <c r="G426" s="39"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="63" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -9852,7 +9900,7 @@
       <c r="F427" s="40"/>
       <c r="G427" s="40"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="62" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -9864,7 +9912,7 @@
       <c r="F428" s="39"/>
       <c r="G428" s="39"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="63" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -9876,7 +9924,7 @@
       <c r="F429" s="40"/>
       <c r="G429" s="40"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="62" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -9888,7 +9936,7 @@
       <c r="F430" s="39"/>
       <c r="G430" s="39"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="63" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -9900,7 +9948,7 @@
       <c r="F431" s="40"/>
       <c r="G431" s="40"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="62" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -9912,7 +9960,7 @@
       <c r="F432" s="39"/>
       <c r="G432" s="39"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="63" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -9924,7 +9972,7 @@
       <c r="F433" s="40"/>
       <c r="G433" s="40"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="62" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -9936,7 +9984,7 @@
       <c r="F434" s="39"/>
       <c r="G434" s="39"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="63" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -9948,7 +9996,7 @@
       <c r="F435" s="40"/>
       <c r="G435" s="40"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="62" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -9960,7 +10008,7 @@
       <c r="F436" s="39"/>
       <c r="G436" s="39"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="63" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -9972,7 +10020,7 @@
       <c r="F437" s="40"/>
       <c r="G437" s="40"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="62" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -9984,7 +10032,7 @@
       <c r="F438" s="39"/>
       <c r="G438" s="39"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="63" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -9996,7 +10044,7 @@
       <c r="F439" s="40"/>
       <c r="G439" s="40"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="62" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -10008,7 +10056,7 @@
       <c r="F440" s="39"/>
       <c r="G440" s="39"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="63" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -10020,7 +10068,7 @@
       <c r="F441" s="40"/>
       <c r="G441" s="40"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="62" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -10032,7 +10080,7 @@
       <c r="F442" s="39"/>
       <c r="G442" s="39"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="63" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -10044,7 +10092,7 @@
       <c r="F443" s="40"/>
       <c r="G443" s="40"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="62" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -10056,7 +10104,7 @@
       <c r="F444" s="39"/>
       <c r="G444" s="39"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="63" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -10068,7 +10116,7 @@
       <c r="F445" s="40"/>
       <c r="G445" s="40"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="62" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -10080,7 +10128,7 @@
       <c r="F446" s="39"/>
       <c r="G446" s="39"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="63" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -10092,7 +10140,7 @@
       <c r="F447" s="40"/>
       <c r="G447" s="40"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="62" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -10104,7 +10152,7 @@
       <c r="F448" s="39"/>
       <c r="G448" s="39"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="63" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -10116,7 +10164,7 @@
       <c r="F449" s="40"/>
       <c r="G449" s="40"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="62" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -10128,7 +10176,7 @@
       <c r="F450" s="39"/>
       <c r="G450" s="39"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="63" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -10140,7 +10188,7 @@
       <c r="F451" s="40"/>
       <c r="G451" s="40"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="62" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -10152,7 +10200,7 @@
       <c r="F452" s="39"/>
       <c r="G452" s="39"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="63" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -10164,7 +10212,7 @@
       <c r="F453" s="40"/>
       <c r="G453" s="40"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="62" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -10176,7 +10224,7 @@
       <c r="F454" s="39"/>
       <c r="G454" s="39"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="63" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -10188,7 +10236,7 @@
       <c r="F455" s="40"/>
       <c r="G455" s="40"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="62" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -10200,7 +10248,7 @@
       <c r="F456" s="39"/>
       <c r="G456" s="39"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="63" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -10212,7 +10260,7 @@
       <c r="F457" s="40"/>
       <c r="G457" s="40"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="62" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -10224,7 +10272,7 @@
       <c r="F458" s="39"/>
       <c r="G458" s="39"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="63" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -10236,7 +10284,7 @@
       <c r="F459" s="40"/>
       <c r="G459" s="40"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="62" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -10248,7 +10296,7 @@
       <c r="F460" s="39"/>
       <c r="G460" s="39"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="63" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -10260,7 +10308,7 @@
       <c r="F461" s="40"/>
       <c r="G461" s="40"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="62" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -10272,7 +10320,7 @@
       <c r="F462" s="39"/>
       <c r="G462" s="39"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="63" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -10284,7 +10332,7 @@
       <c r="F463" s="40"/>
       <c r="G463" s="40"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="62" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -10296,7 +10344,7 @@
       <c r="F464" s="39"/>
       <c r="G464" s="39"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="63" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -10308,7 +10356,7 @@
       <c r="F465" s="40"/>
       <c r="G465" s="40"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="62" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -10320,7 +10368,7 @@
       <c r="F466" s="39"/>
       <c r="G466" s="39"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="63" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -10332,7 +10380,7 @@
       <c r="F467" s="40"/>
       <c r="G467" s="40"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="62" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -10344,7 +10392,7 @@
       <c r="F468" s="39"/>
       <c r="G468" s="39"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="63" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -10356,7 +10404,7 @@
       <c r="F469" s="40"/>
       <c r="G469" s="40"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="62" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -10368,7 +10416,7 @@
       <c r="F470" s="39"/>
       <c r="G470" s="39"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="63" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -10380,7 +10428,7 @@
       <c r="F471" s="40"/>
       <c r="G471" s="40"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="62" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -10392,7 +10440,7 @@
       <c r="F472" s="39"/>
       <c r="G472" s="39"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="63" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -10404,7 +10452,7 @@
       <c r="F473" s="40"/>
       <c r="G473" s="40"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="62" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -10416,7 +10464,7 @@
       <c r="F474" s="39"/>
       <c r="G474" s="39"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="63" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -10428,7 +10476,7 @@
       <c r="F475" s="40"/>
       <c r="G475" s="40"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="62" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -10440,7 +10488,7 @@
       <c r="F476" s="39"/>
       <c r="G476" s="39"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="63" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -10452,7 +10500,7 @@
       <c r="F477" s="40"/>
       <c r="G477" s="40"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="62" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -10464,7 +10512,7 @@
       <c r="F478" s="39"/>
       <c r="G478" s="39"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="63" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -10476,7 +10524,7 @@
       <c r="F479" s="40"/>
       <c r="G479" s="40"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="62" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -10488,7 +10536,7 @@
       <c r="F480" s="39"/>
       <c r="G480" s="39"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="63" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -10500,7 +10548,7 @@
       <c r="F481" s="40"/>
       <c r="G481" s="40"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="62" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -10512,7 +10560,7 @@
       <c r="F482" s="39"/>
       <c r="G482" s="39"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="63" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -10524,7 +10572,7 @@
       <c r="F483" s="40"/>
       <c r="G483" s="40"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="62" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -10536,7 +10584,7 @@
       <c r="F484" s="39"/>
       <c r="G484" s="39"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="63" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -10548,7 +10596,7 @@
       <c r="F485" s="40"/>
       <c r="G485" s="40"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="62" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -10560,7 +10608,7 @@
       <c r="F486" s="39"/>
       <c r="G486" s="39"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="63" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -10572,7 +10620,7 @@
       <c r="F487" s="40"/>
       <c r="G487" s="40"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="62" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -10584,7 +10632,7 @@
       <c r="F488" s="39"/>
       <c r="G488" s="39"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="63" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -10596,7 +10644,7 @@
       <c r="F489" s="40"/>
       <c r="G489" s="40"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="62" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -10608,7 +10656,7 @@
       <c r="F490" s="39"/>
       <c r="G490" s="39"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="63" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -10620,7 +10668,7 @@
       <c r="F491" s="40"/>
       <c r="G491" s="40"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="62" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -10632,7 +10680,7 @@
       <c r="F492" s="39"/>
       <c r="G492" s="39"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="63" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -10644,7 +10692,7 @@
       <c r="F493" s="40"/>
       <c r="G493" s="40"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="62" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -10656,7 +10704,7 @@
       <c r="F494" s="39"/>
       <c r="G494" s="39"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="63" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -10668,7 +10716,7 @@
       <c r="F495" s="40"/>
       <c r="G495" s="40"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="62" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -10680,7 +10728,7 @@
       <c r="F496" s="39"/>
       <c r="G496" s="39"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="63" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -10692,7 +10740,7 @@
       <c r="F497" s="40"/>
       <c r="G497" s="40"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="62" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -10704,7 +10752,7 @@
       <c r="F498" s="39"/>
       <c r="G498" s="39"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="63" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -10716,7 +10764,7 @@
       <c r="F499" s="40"/>
       <c r="G499" s="40"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="62" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -10728,7 +10776,7 @@
       <c r="F500" s="39"/>
       <c r="G500" s="39"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="63" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -10740,7 +10788,7 @@
       <c r="F501" s="40"/>
       <c r="G501" s="40"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="62" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -10752,7 +10800,7 @@
       <c r="F502" s="39"/>
       <c r="G502" s="39"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="63" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -10764,7 +10812,7 @@
       <c r="F503" s="40"/>
       <c r="G503" s="40"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="62" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -10776,7 +10824,7 @@
       <c r="F504" s="39"/>
       <c r="G504" s="39"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="63" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -10788,7 +10836,7 @@
       <c r="F505" s="40"/>
       <c r="G505" s="40"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="62" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -10800,7 +10848,7 @@
       <c r="F506" s="39"/>
       <c r="G506" s="39"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="63" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -10812,7 +10860,7 @@
       <c r="F507" s="40"/>
       <c r="G507" s="40"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="62" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -10824,7 +10872,7 @@
       <c r="F508" s="39"/>
       <c r="G508" s="39"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="63" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -10836,7 +10884,7 @@
       <c r="F509" s="40"/>
       <c r="G509" s="40"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="62" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -10848,7 +10896,7 @@
       <c r="F510" s="39"/>
       <c r="G510" s="39"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="63" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -10860,7 +10908,7 @@
       <c r="F511" s="40"/>
       <c r="G511" s="40"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="62" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -10872,7 +10920,7 @@
       <c r="F512" s="39"/>
       <c r="G512" s="39"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="63" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -10884,7 +10932,7 @@
       <c r="F513" s="40"/>
       <c r="G513" s="40"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="62" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -10896,7 +10944,7 @@
       <c r="F514" s="39"/>
       <c r="G514" s="39"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="63" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -10908,7 +10956,7 @@
       <c r="F515" s="40"/>
       <c r="G515" s="40"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="62" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -10920,7 +10968,7 @@
       <c r="F516" s="39"/>
       <c r="G516" s="39"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="63" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -10932,7 +10980,7 @@
       <c r="F517" s="40"/>
       <c r="G517" s="40"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="62" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -10944,7 +10992,7 @@
       <c r="F518" s="39"/>
       <c r="G518" s="39"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="63" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -10956,7 +11004,7 @@
       <c r="F519" s="40"/>
       <c r="G519" s="40"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="62" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -10968,7 +11016,7 @@
       <c r="F520" s="39"/>
       <c r="G520" s="39"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="63" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -10980,7 +11028,7 @@
       <c r="F521" s="40"/>
       <c r="G521" s="40"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="62" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -10992,7 +11040,7 @@
       <c r="F522" s="39"/>
       <c r="G522" s="39"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="63" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -11004,7 +11052,7 @@
       <c r="F523" s="40"/>
       <c r="G523" s="40"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="62" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -11016,7 +11064,7 @@
       <c r="F524" s="39"/>
       <c r="G524" s="39"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="63" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -11028,7 +11076,7 @@
       <c r="F525" s="40"/>
       <c r="G525" s="40"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="62" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -11040,7 +11088,7 @@
       <c r="F526" s="39"/>
       <c r="G526" s="39"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="63" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -11052,7 +11100,7 @@
       <c r="F527" s="40"/>
       <c r="G527" s="40"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="62" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -11064,7 +11112,7 @@
       <c r="F528" s="39"/>
       <c r="G528" s="39"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="63" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -11076,7 +11124,7 @@
       <c r="F529" s="40"/>
       <c r="G529" s="40"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="62" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -11088,7 +11136,7 @@
       <c r="F530" s="39"/>
       <c r="G530" s="39"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="63" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -11100,7 +11148,7 @@
       <c r="F531" s="40"/>
       <c r="G531" s="40"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="62" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -11183,19 +11231,19 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="1" max="3" width="10.8984375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="21" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="E2" s="66" t="s">
         <v>24</v>
       </c>
@@ -11209,12 +11257,12 @@
       <c r="M2" s="44"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="E4" s="66" t="s">
         <v>25</v>
       </c>
@@ -11224,7 +11272,7 @@
       <c r="M4" s="41"/>
       <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11254,7 +11302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -11277,7 +11325,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.15384615384615385</v>
+        <v>0.12307692307692308</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11291,18 +11339,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>635</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11310,11 +11358,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>7 h 30 min</v>
+        <v>10 h 35 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.57692307692307687</v>
+        <v>0.6512820512820513</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11328,7 +11376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -11351,7 +11399,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11365,18 +11413,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11384,11 +11432,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 00 min</v>
+        <v>3 h 10 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
+        <v>0.19487179487179487</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11402,7 +11450,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E10,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -11437,29 +11485,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>780</v>
+        <v>975</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>13 h 00 min</v>
+        <v>16 h 15 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.54166666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11470,13 +11518,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C12">
         <f>F2*60</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F13" s="43"/>
     </row>
   </sheetData>
@@ -11494,7 +11542,7 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="hkKOZ8xr/Okjo/AJlNTtoGYYhES8sIn2fOpGKGGyPJqhNRzaMuj9V6Pke+VqLSypQTwaNPCt0dhRPEVp9CfBFA==" saltValue="lF/ApQWS3LBdJp0wgcNUcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF447E-D0EC-4247-8A37-D495A073ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6699DE-A218-4CD9-A768-A3F3378839EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="0" windowWidth="14448" windowHeight="12336" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Auteur:</t>
   </si>
@@ -269,6 +269,9 @@
 - Added automatic synchronization between loadedCryptos and CheckedListBox:
   → When new crypto is loaded, it is added to CheckedListBox (checked by default).
   → CheckedListBox now correctly controls which cryptos are visible on the chart.</t>
+  </si>
+  <si>
+    <t>gitignore</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1296,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>635</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
@@ -2223,16 +2226,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12307692307692308</c:v>
+                  <c:v>0.12182741116751269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6512820512820513</c:v>
+                  <c:v>0.65482233502538068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0769230769230771E-2</c:v>
+                  <c:v>3.0456852791878174E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19487179487179487</c:v>
+                  <c:v>0.19289340101522842</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4420,8 +4423,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4476,7 +4479,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>16 heures 15 minutes</v>
+        <v>16 heures 25 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4495,11 +4498,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5141,10 +5144,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G31" s="40"/>
     </row>
@@ -5155,9 +5158,15 @@
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="23"/>
+      <c r="D32" s="32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -11325,7 +11334,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.12307692307692308</v>
+        <v>0.12182741116751269</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11346,11 +11355,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11358,11 +11367,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>10 h 35 min</v>
+        <v>10 h 45 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.6512820512820513</v>
+        <v>0.65482233502538068</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11399,7 +11408,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>3.0769230769230771E-2</v>
+        <v>3.0456852791878174E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11436,7 +11445,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.19487179487179487</v>
+        <v>0.19289340101522842</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11492,22 +11501,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>16 h 15 min</v>
+        <v>16 h 25 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.67708333333333337</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11551,15 +11560,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11568,6 +11568,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11772,14 +11781,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11788,6 +11789,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6699DE-A218-4CD9-A768-A3F3378839EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF2683D-D135-46FF-9A6E-6704D54061D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>Auteur:</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>gitignore</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/takekazuomi/10955889</t>
   </si>
 </sst>
 </file>
@@ -4424,7 +4427,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5149,7 +5152,9 @@
       <c r="F31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="84" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="str">
@@ -11222,11 +11227,12 @@
     <hyperlink ref="G12" r:id="rId2" xr:uid="{160CB3A4-60AC-4C67-9742-E843A97D81B7}"/>
     <hyperlink ref="G10" r:id="rId3" xr:uid="{0F91120E-3455-4E0F-8C60-6729CE2C909C}"/>
     <hyperlink ref="G20" r:id="rId4" xr:uid="{4AC877DD-0538-4960-9300-3F6AF2D7E0D5}"/>
+    <hyperlink ref="G31" r:id="rId5" xr:uid="{14778DBD-AC08-49BE-B816-D74CEFC0A64E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11560,6 +11566,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11568,15 +11583,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11781,6 +11787,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11789,14 +11803,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF2683D-D135-46FF-9A6E-6704D54061D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84015511-7C12-4D43-B6BD-166F657126AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Auteur:</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>https://gist.github.com/takekazuomi/10955889</t>
+  </si>
+  <si>
+    <t>schema de fonctionnement d'application</t>
+  </si>
+  <si>
+    <t>tests a. b. c. d.</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1308,10 @@
                   <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2229,16 +2235,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12182741116751269</c:v>
+                  <c:v>0.11009174311926606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65482233502538068</c:v>
+                  <c:v>0.59174311926605505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0456852791878174E-2</c:v>
+                  <c:v>0.11009174311926606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19289340101522842</c:v>
+                  <c:v>0.18807339449541285</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4427,7 +4433,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4482,7 +4488,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>16 heures 25 minutes</v>
+        <v>18 heures 10 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4497,15 +4503,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>985</v>
+        <v>1090</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5157,11 +5163,13 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="str">
+      <c r="A32" s="62">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="B32" s="30">
+        <v>45940</v>
+      </c>
       <c r="C32" s="31"/>
       <c r="D32" s="32">
         <v>10</v>
@@ -5175,27 +5183,45 @@
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="str">
+      <c r="A33" s="63">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="B33" s="34">
+        <v>45941</v>
+      </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="22"/>
+      <c r="D33" s="36">
+        <v>15</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="62" t="str">
+      <c r="A34" s="62">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="B34" s="30">
+        <v>45941</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="32">
+        <v>30</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -11340,7 +11366,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.12182741116751269</v>
+        <v>0.11009174311926606</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11377,7 +11403,7 @@
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.65482233502538068</v>
+        <v>0.59174311926605505</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11394,15 +11420,15 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E8" s="76" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11410,11 +11436,11 @@
       </c>
       <c r="F8" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 30 min</v>
+        <v>2 h 00 min</v>
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>3.0456852791878174E-2</v>
+        <v>0.11009174311926606</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11435,11 +11461,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11447,11 +11473,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 10 min</v>
+        <v>3 h 25 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.19289340101522842</v>
+        <v>0.18807339449541285</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11503,26 +11529,26 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>985</v>
+        <v>1090</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>16 h 25 min</v>
+        <v>18 h 10 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.68402777777777779</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11566,15 +11592,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11583,6 +11600,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11787,14 +11813,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11803,6 +11821,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84015511-7C12-4D43-B6BD-166F657126AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FF0EE-6479-43FD-9023-9355CEE595B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>Auteur:</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>tests a. b. c. d.</t>
+  </si>
+  <si>
+    <t>documentation(Rapport(tests UINT, test acceptation))</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1314,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>205</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2235,16 +2238,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.11009174311926606</c:v>
+                  <c:v>0.10762331838565023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59174311926605505</c:v>
+                  <c:v>0.57847533632286996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11009174311926606</c:v>
+                  <c:v>0.10762331838565023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18807339449541285</c:v>
+                  <c:v>0.20627802690582961</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4433,7 +4436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4488,7 +4491,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>18 heures 10 minutes</v>
+        <v>18 heures 35 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4507,11 +4510,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1090</v>
+        <v>1115</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5225,15 +5228,23 @@
       <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="str">
+      <c r="A35" s="63">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="B35" s="34">
+        <v>45941</v>
+      </c>
       <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="23"/>
+      <c r="D35" s="36">
+        <v>25</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -11366,7 +11377,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.11009174311926606</v>
+        <v>0.10762331838565023</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11403,7 +11414,7 @@
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.59174311926605505</v>
+        <v>0.57847533632286996</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11440,7 +11451,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>0.11009174311926606</v>
+        <v>0.10762331838565023</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11461,11 +11472,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11473,11 +11484,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 25 min</v>
+        <v>3 h 50 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.18807339449541285</v>
+        <v>0.20627802690582961</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11533,22 +11544,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1090</v>
+        <v>1115</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>18 h 10 min</v>
+        <v>18 h 35 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.75694444444444442</v>
+        <v>0.77430555555555558</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11592,6 +11603,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11600,15 +11620,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11813,6 +11824,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11821,14 +11840,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FF0EE-6479-43FD-9023-9355CEE595B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D78E2-6541-4EC1-8B6F-A709CF78E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Auteur:</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>documentation(Rapport(tests UINT, test acceptation))</t>
+  </si>
+  <si>
+    <t>documentation(Rapport(Réalisation,Objectifs pédagogiques,Utilisation de l’IA, bilan technique, bilan personnel ,Conclusion)</t>
+  </si>
+  <si>
+    <t>foreach-&gt; linq foreach</t>
   </si>
 </sst>
 </file>
@@ -1308,13 +1314,13 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>645</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2238,16 +2244,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10762331838565023</c:v>
+                  <c:v>0.10212765957446808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57847533632286996</c:v>
+                  <c:v>0.5617021276595745</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10762331838565023</c:v>
+                  <c:v>0.10212765957446808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20627802690582961</c:v>
+                  <c:v>0.23404255319148937</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4436,7 +4442,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4491,7 +4497,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>18 heures 35 minutes</v>
+        <v>19 heures 35 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4510,11 +4516,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>695</v>
+        <v>755</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1115</v>
+        <v>1175</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5248,27 +5254,43 @@
       <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="str">
+      <c r="A36" s="62">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="B36" s="30">
+        <v>45941</v>
+      </c>
       <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="22"/>
+      <c r="D36" s="32">
+        <v>45</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="str">
+      <c r="A37" s="63">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="B37" s="34">
+        <v>45941</v>
+      </c>
       <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="22"/>
+      <c r="D37" s="36">
+        <v>15</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -11377,7 +11399,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.10762331838565023</v>
+        <v>0.10212765957446808</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11398,11 +11420,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11410,11 +11432,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>10 h 45 min</v>
+        <v>11 h 00 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.57847533632286996</v>
+        <v>0.5617021276595745</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11451,7 +11473,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>0.10762331838565023</v>
+        <v>0.10212765957446808</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11472,11 +11494,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11484,11 +11506,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 50 min</v>
+        <v>4 h 35 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.20627802690582961</v>
+        <v>0.23404255319148937</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11544,22 +11566,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>695</v>
+        <v>755</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1115</v>
+        <v>1175</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>18 h 35 min</v>
+        <v>19 h 35 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.77430555555555558</v>
+        <v>0.81597222222222221</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11603,15 +11625,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11620,6 +11633,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11824,14 +11846,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11840,6 +11854,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D78E2-6541-4EC1-8B6F-A709CF78E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405D194-DE9C-46A1-80C0-3372863001E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>Auteur:</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>foreach-&gt; linq foreach</t>
+  </si>
+  <si>
+    <t>correction de tous les points dans feedback</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1317,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>660</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
@@ -2244,16 +2247,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10212765957446808</c:v>
+                  <c:v>9.7165991902834009E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5617021276595745</c:v>
+                  <c:v>0.582995951417004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10212765957446808</c:v>
+                  <c:v>9.7165991902834009E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23404255319148937</c:v>
+                  <c:v>0.22267206477732793</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4441,8 +4444,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4497,7 +4500,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>19 heures 35 minutes</v>
+        <v>20 heures 35 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4512,7 +4515,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -4520,7 +4523,7 @@
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1175</v>
+        <v>1235</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5294,15 +5297,23 @@
       <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="str">
+      <c r="A38" s="62">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
+        <v>41</v>
+      </c>
+      <c r="B38" s="30">
+        <v>45941</v>
+      </c>
+      <c r="C38" s="31">
+        <v>1</v>
+      </c>
       <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="22"/>
+      <c r="E38" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -11399,7 +11410,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.10212765957446808</v>
+        <v>9.7165991902834009E-2</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11416,7 +11427,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
@@ -11424,7 +11435,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11432,11 +11443,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>11 h 00 min</v>
+        <v>12 h 00 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.5617021276595745</v>
+        <v>0.582995951417004</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11473,7 +11484,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>0.10212765957446808</v>
+        <v>9.7165991902834009E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11510,7 +11521,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.23404255319148937</v>
+        <v>0.22267206477732793</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11562,7 +11573,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
@@ -11570,18 +11581,18 @@
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1175</v>
+        <v>1235</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>19 h 35 min</v>
+        <v>20 h 35 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.81597222222222221</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11625,6 +11636,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11633,15 +11653,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11846,6 +11857,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11854,14 +11873,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Plot_those_lines\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405D194-DE9C-46A1-80C0-3372863001E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7766D80-C64B-4B66-8CC4-96A06AE06A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Auteur:</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>correction de tous les points dans feedback</t>
+  </si>
+  <si>
+    <t>Ajouter la persistance de l’état de l’application (local JSON)</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
@@ -1069,7 +1072,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1317,7 +1320,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>720</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
@@ -1390,7 +1393,6 @@
     </c:legend>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1398,6 +1400,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1435,7 +1438,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1763,7 +1766,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1771,6 +1773,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1808,7 +1811,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2247,16 +2250,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.7165991902834009E-2</c:v>
+                  <c:v>9.125475285171103E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.582995951417004</c:v>
+                  <c:v>0.60836501901140683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7165991902834009E-2</c:v>
+                  <c:v>9.125475285171103E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22267206477732793</c:v>
+                  <c:v>0.20912547528517111</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2414,7 +2417,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2422,6 +2424,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4445,27 +4448,27 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.09765625" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.59765625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.59765625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="72.125" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -4476,7 +4479,7 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
@@ -4493,14 +4496,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>20 heures 35 minutes</v>
+        <v>21 heures 55 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4511,30 +4514,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1235</v>
+        <v>1315</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="87"/>
     </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>35</v>
@@ -4577,7 +4580,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>35</v>
@@ -4608,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="63">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>35</v>
@@ -4639,7 +4642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>35</v>
@@ -4670,7 +4673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="63">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>35</v>
@@ -4701,7 +4704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>36</v>
@@ -4732,7 +4735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="63">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>36</v>
@@ -4760,7 +4763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>36</v>
@@ -4788,7 +4791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="63">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>36</v>
@@ -4816,7 +4819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>37</v>
@@ -4841,7 +4844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="63">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>37</v>
@@ -4868,7 +4871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>37</v>
@@ -4893,7 +4896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="63">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>37</v>
@@ -4916,7 +4919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>39</v>
@@ -4940,7 +4943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="63">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>39</v>
@@ -4962,7 +4965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>39</v>
@@ -4982,7 +4985,7 @@
       </c>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="63">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v>39</v>
@@ -5002,7 +5005,7 @@
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="62">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v>40</v>
@@ -5024,7 +5027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="63">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v>40</v>
@@ -5046,7 +5049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="62">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v>40</v>
@@ -5068,7 +5071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="63">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v>40</v>
@@ -5088,7 +5091,7 @@
       </c>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="62">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v>40</v>
@@ -5108,7 +5111,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="63">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v>41</v>
@@ -5128,7 +5131,7 @@
       </c>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="1:15" ht="156" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A30" s="62">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v>41</v>
@@ -5152,7 +5155,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="63">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v>41</v>
@@ -5174,7 +5177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="62">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v>41</v>
@@ -5194,7 +5197,7 @@
       </c>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="63">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v>41</v>
@@ -5214,7 +5217,7 @@
       </c>
       <c r="G33" s="40"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="62">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v>41</v>
@@ -5236,7 +5239,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="63">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v>41</v>
@@ -5256,7 +5259,7 @@
       </c>
       <c r="G35" s="40"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="62">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v>41</v>
@@ -5276,7 +5279,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v>41</v>
@@ -5296,7 +5299,7 @@
       </c>
       <c r="G37" s="40"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="62">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v>41</v>
@@ -5316,19 +5319,29 @@
       </c>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="str">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="63">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="B39" s="34">
+        <v>45957</v>
+      </c>
+      <c r="C39" s="35">
+        <v>1</v>
+      </c>
+      <c r="D39" s="36">
+        <v>20</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="G39" s="40"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -5340,7 +5353,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -5352,7 +5365,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -5364,7 +5377,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -5376,7 +5389,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="40"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -5388,7 +5401,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -5400,7 +5413,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="40"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -5412,7 +5425,7 @@
       <c r="F46" s="22"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -5424,7 +5437,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="62" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -5436,7 +5449,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -5448,7 +5461,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -5460,7 +5473,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -5472,7 +5485,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -5484,7 +5497,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -5496,7 +5509,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -5508,7 +5521,7 @@
       <c r="F54" s="22"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="63" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -5520,7 +5533,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="40"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -5532,7 +5545,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="63" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -5544,7 +5557,7 @@
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="62" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -5556,7 +5569,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="63" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -5568,7 +5581,7 @@
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -5580,7 +5593,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -5592,7 +5605,7 @@
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="62" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -5604,7 +5617,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -5616,7 +5629,7 @@
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="62" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -5628,7 +5641,7 @@
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="63" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -5640,7 +5653,7 @@
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="62" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -5652,7 +5665,7 @@
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="63" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -5664,7 +5677,7 @@
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="62" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -5676,7 +5689,7 @@
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="63" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -5688,7 +5701,7 @@
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="62" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -5700,7 +5713,7 @@
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="63" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -5712,7 +5725,7 @@
       <c r="F71" s="40"/>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="62" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -5724,7 +5737,7 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="63" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -5736,7 +5749,7 @@
       <c r="F73" s="40"/>
       <c r="G73" s="40"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="62" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -5748,7 +5761,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="63" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -5760,7 +5773,7 @@
       <c r="F75" s="40"/>
       <c r="G75" s="40"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="62" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -5772,7 +5785,7 @@
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="63" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -5784,7 +5797,7 @@
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="62" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -5796,7 +5809,7 @@
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="63" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -5808,7 +5821,7 @@
       <c r="F79" s="40"/>
       <c r="G79" s="40"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="62" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -5820,7 +5833,7 @@
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="63" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -5832,7 +5845,7 @@
       <c r="F81" s="40"/>
       <c r="G81" s="40"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -5844,7 +5857,7 @@
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="63" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -5856,7 +5869,7 @@
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="62" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -5868,7 +5881,7 @@
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="63" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -5880,7 +5893,7 @@
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="62" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -5892,7 +5905,7 @@
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="63" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -5904,7 +5917,7 @@
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="62" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -5916,7 +5929,7 @@
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="63" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -5928,7 +5941,7 @@
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="62" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -5940,7 +5953,7 @@
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="63" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -5952,7 +5965,7 @@
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="62" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -5964,7 +5977,7 @@
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="63" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -5976,7 +5989,7 @@
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="62" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -5988,7 +6001,7 @@
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="63" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -6000,7 +6013,7 @@
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="62" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -6012,7 +6025,7 @@
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="63" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -6024,7 +6037,7 @@
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="62" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -6036,7 +6049,7 @@
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -6048,7 +6061,7 @@
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="62" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -6060,7 +6073,7 @@
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="63" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -6072,7 +6085,7 @@
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="62" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -6084,7 +6097,7 @@
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="63" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -6096,7 +6109,7 @@
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="62" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -6108,7 +6121,7 @@
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -6120,7 +6133,7 @@
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="62" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -6132,7 +6145,7 @@
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -6144,7 +6157,7 @@
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="62" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -6156,7 +6169,7 @@
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -6168,7 +6181,7 @@
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="62" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -6180,7 +6193,7 @@
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -6192,7 +6205,7 @@
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="62" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -6204,7 +6217,7 @@
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -6216,7 +6229,7 @@
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="62" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -6228,7 +6241,7 @@
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -6240,7 +6253,7 @@
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="62" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -6252,7 +6265,7 @@
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -6264,7 +6277,7 @@
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="62" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -6276,7 +6289,7 @@
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -6288,7 +6301,7 @@
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="62" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -6300,7 +6313,7 @@
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="63" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -6312,7 +6325,7 @@
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="62" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -6324,7 +6337,7 @@
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="63" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -6336,7 +6349,7 @@
       <c r="F123" s="40"/>
       <c r="G123" s="40"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="62" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -6348,7 +6361,7 @@
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="63" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -6360,7 +6373,7 @@
       <c r="F125" s="40"/>
       <c r="G125" s="40"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="62" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -6372,7 +6385,7 @@
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -6384,7 +6397,7 @@
       <c r="F127" s="40"/>
       <c r="G127" s="40"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="62" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -6396,7 +6409,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="63" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -6408,7 +6421,7 @@
       <c r="F129" s="40"/>
       <c r="G129" s="40"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="62" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -6420,7 +6433,7 @@
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="63" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -6432,7 +6445,7 @@
       <c r="F131" s="40"/>
       <c r="G131" s="40"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="62" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -6444,7 +6457,7 @@
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="63" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -6456,7 +6469,7 @@
       <c r="F133" s="40"/>
       <c r="G133" s="40"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="62" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -6468,7 +6481,7 @@
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="63" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -6480,7 +6493,7 @@
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="62" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -6492,7 +6505,7 @@
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="63" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -6504,7 +6517,7 @@
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="62" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -6516,7 +6529,7 @@
       <c r="F138" s="39"/>
       <c r="G138" s="39"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="63" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -6528,7 +6541,7 @@
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="62" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -6540,7 +6553,7 @@
       <c r="F140" s="39"/>
       <c r="G140" s="39"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="63" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -6552,7 +6565,7 @@
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="62" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -6564,7 +6577,7 @@
       <c r="F142" s="39"/>
       <c r="G142" s="39"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="63" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -6576,7 +6589,7 @@
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="62" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -6588,7 +6601,7 @@
       <c r="F144" s="39"/>
       <c r="G144" s="39"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="63" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -6600,7 +6613,7 @@
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="62" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -6612,7 +6625,7 @@
       <c r="F146" s="39"/>
       <c r="G146" s="39"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="63" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -6624,7 +6637,7 @@
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="62" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -6636,7 +6649,7 @@
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="63" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -6648,7 +6661,7 @@
       <c r="F149" s="40"/>
       <c r="G149" s="40"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="62" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -6660,7 +6673,7 @@
       <c r="F150" s="39"/>
       <c r="G150" s="39"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="63" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -6672,7 +6685,7 @@
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="62" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -6684,7 +6697,7 @@
       <c r="F152" s="39"/>
       <c r="G152" s="39"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="63" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -6696,7 +6709,7 @@
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="62" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -6708,7 +6721,7 @@
       <c r="F154" s="39"/>
       <c r="G154" s="39"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="63" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -6720,7 +6733,7 @@
       <c r="F155" s="40"/>
       <c r="G155" s="40"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="62" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -6732,7 +6745,7 @@
       <c r="F156" s="39"/>
       <c r="G156" s="39"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="63" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -6744,7 +6757,7 @@
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="62" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -6756,7 +6769,7 @@
       <c r="F158" s="39"/>
       <c r="G158" s="39"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="63" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -6768,7 +6781,7 @@
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="62" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -6780,7 +6793,7 @@
       <c r="F160" s="39"/>
       <c r="G160" s="39"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="63" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -6792,7 +6805,7 @@
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="62" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -6804,7 +6817,7 @@
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="63" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -6816,7 +6829,7 @@
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="62" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -6828,7 +6841,7 @@
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="63" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -6840,7 +6853,7 @@
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="62" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -6852,7 +6865,7 @@
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="63" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -6864,7 +6877,7 @@
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="62" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -6876,7 +6889,7 @@
       <c r="F168" s="39"/>
       <c r="G168" s="39"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="63" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -6888,7 +6901,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="40"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="62" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -6900,7 +6913,7 @@
       <c r="F170" s="39"/>
       <c r="G170" s="39"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="63" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -6912,7 +6925,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="62" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -6924,7 +6937,7 @@
       <c r="F172" s="39"/>
       <c r="G172" s="39"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="63" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -6936,7 +6949,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="40"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="62" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -6948,7 +6961,7 @@
       <c r="F174" s="39"/>
       <c r="G174" s="39"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="63" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -6960,7 +6973,7 @@
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="62" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -6972,7 +6985,7 @@
       <c r="F176" s="39"/>
       <c r="G176" s="39"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="63" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -6984,7 +6997,7 @@
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="62" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -6996,7 +7009,7 @@
       <c r="F178" s="39"/>
       <c r="G178" s="39"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="63" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -7008,7 +7021,7 @@
       <c r="F179" s="40"/>
       <c r="G179" s="40"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="62" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -7020,7 +7033,7 @@
       <c r="F180" s="39"/>
       <c r="G180" s="39"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="63" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -7032,7 +7045,7 @@
       <c r="F181" s="40"/>
       <c r="G181" s="40"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="62" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -7044,7 +7057,7 @@
       <c r="F182" s="39"/>
       <c r="G182" s="39"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="63" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -7056,7 +7069,7 @@
       <c r="F183" s="40"/>
       <c r="G183" s="40"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="62" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -7068,7 +7081,7 @@
       <c r="F184" s="39"/>
       <c r="G184" s="39"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="63" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -7080,7 +7093,7 @@
       <c r="F185" s="40"/>
       <c r="G185" s="40"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="62" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -7092,7 +7105,7 @@
       <c r="F186" s="39"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="63" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -7104,7 +7117,7 @@
       <c r="F187" s="40"/>
       <c r="G187" s="40"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="62" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -7116,7 +7129,7 @@
       <c r="F188" s="39"/>
       <c r="G188" s="39"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="63" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -7128,7 +7141,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="40"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="62" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -7140,7 +7153,7 @@
       <c r="F190" s="39"/>
       <c r="G190" s="39"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="63" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -7152,7 +7165,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="40"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="62" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -7164,7 +7177,7 @@
       <c r="F192" s="39"/>
       <c r="G192" s="39"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="63" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -7176,7 +7189,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="40"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="62" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -7188,7 +7201,7 @@
       <c r="F194" s="39"/>
       <c r="G194" s="39"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="63" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -7200,7 +7213,7 @@
       <c r="F195" s="40"/>
       <c r="G195" s="40"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="62" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -7212,7 +7225,7 @@
       <c r="F196" s="39"/>
       <c r="G196" s="39"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="63" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -7224,7 +7237,7 @@
       <c r="F197" s="40"/>
       <c r="G197" s="40"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="62" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -7236,7 +7249,7 @@
       <c r="F198" s="39"/>
       <c r="G198" s="39"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="63" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -7248,7 +7261,7 @@
       <c r="F199" s="40"/>
       <c r="G199" s="40"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="62" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -7260,7 +7273,7 @@
       <c r="F200" s="39"/>
       <c r="G200" s="39"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="63" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -7272,7 +7285,7 @@
       <c r="F201" s="40"/>
       <c r="G201" s="40"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="62" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -7284,7 +7297,7 @@
       <c r="F202" s="39"/>
       <c r="G202" s="39"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="63" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -7296,7 +7309,7 @@
       <c r="F203" s="40"/>
       <c r="G203" s="40"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="62" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -7308,7 +7321,7 @@
       <c r="F204" s="39"/>
       <c r="G204" s="39"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="63" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -7320,7 +7333,7 @@
       <c r="F205" s="40"/>
       <c r="G205" s="40"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="62" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -7332,7 +7345,7 @@
       <c r="F206" s="39"/>
       <c r="G206" s="39"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="63" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -7344,7 +7357,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="40"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="62" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -7356,7 +7369,7 @@
       <c r="F208" s="39"/>
       <c r="G208" s="39"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="63" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -7368,7 +7381,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="40"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="62" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -7380,7 +7393,7 @@
       <c r="F210" s="39"/>
       <c r="G210" s="39"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="63" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -7392,7 +7405,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="40"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="62" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -7404,7 +7417,7 @@
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="63" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -7416,7 +7429,7 @@
       <c r="F213" s="40"/>
       <c r="G213" s="40"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="62" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -7428,7 +7441,7 @@
       <c r="F214" s="39"/>
       <c r="G214" s="39"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="63" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -7440,7 +7453,7 @@
       <c r="F215" s="40"/>
       <c r="G215" s="40"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="62" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -7452,7 +7465,7 @@
       <c r="F216" s="39"/>
       <c r="G216" s="39"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="63" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -7464,7 +7477,7 @@
       <c r="F217" s="40"/>
       <c r="G217" s="40"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="62" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -7476,7 +7489,7 @@
       <c r="F218" s="39"/>
       <c r="G218" s="39"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="63" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -7488,7 +7501,7 @@
       <c r="F219" s="40"/>
       <c r="G219" s="40"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="62" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -7500,7 +7513,7 @@
       <c r="F220" s="39"/>
       <c r="G220" s="39"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="63" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -7512,7 +7525,7 @@
       <c r="F221" s="40"/>
       <c r="G221" s="40"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="62" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -7524,7 +7537,7 @@
       <c r="F222" s="39"/>
       <c r="G222" s="39"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="63" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -7536,7 +7549,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="40"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="62" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -7548,7 +7561,7 @@
       <c r="F224" s="39"/>
       <c r="G224" s="39"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="63" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -7560,7 +7573,7 @@
       <c r="F225" s="40"/>
       <c r="G225" s="40"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="62" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -7572,7 +7585,7 @@
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="63" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -7584,7 +7597,7 @@
       <c r="F227" s="40"/>
       <c r="G227" s="40"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="62" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -7596,7 +7609,7 @@
       <c r="F228" s="39"/>
       <c r="G228" s="39"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="63" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -7608,7 +7621,7 @@
       <c r="F229" s="40"/>
       <c r="G229" s="40"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="62" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -7620,7 +7633,7 @@
       <c r="F230" s="39"/>
       <c r="G230" s="39"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="63" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -7632,7 +7645,7 @@
       <c r="F231" s="40"/>
       <c r="G231" s="40"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="62" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -7644,7 +7657,7 @@
       <c r="F232" s="39"/>
       <c r="G232" s="39"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="63" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -7656,7 +7669,7 @@
       <c r="F233" s="40"/>
       <c r="G233" s="40"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="62" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -7668,7 +7681,7 @@
       <c r="F234" s="39"/>
       <c r="G234" s="39"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="63" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -7680,7 +7693,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="40"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="62" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -7692,7 +7705,7 @@
       <c r="F236" s="39"/>
       <c r="G236" s="39"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="63" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -7704,7 +7717,7 @@
       <c r="F237" s="40"/>
       <c r="G237" s="40"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="62" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -7716,7 +7729,7 @@
       <c r="F238" s="39"/>
       <c r="G238" s="39"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="63" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -7728,7 +7741,7 @@
       <c r="F239" s="40"/>
       <c r="G239" s="40"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="62" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -7740,7 +7753,7 @@
       <c r="F240" s="39"/>
       <c r="G240" s="39"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="63" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -7752,7 +7765,7 @@
       <c r="F241" s="40"/>
       <c r="G241" s="40"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="62" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -7764,7 +7777,7 @@
       <c r="F242" s="39"/>
       <c r="G242" s="39"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="63" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -7776,7 +7789,7 @@
       <c r="F243" s="40"/>
       <c r="G243" s="40"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="62" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -7788,7 +7801,7 @@
       <c r="F244" s="39"/>
       <c r="G244" s="39"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="63" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -7800,7 +7813,7 @@
       <c r="F245" s="40"/>
       <c r="G245" s="40"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="62" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -7812,7 +7825,7 @@
       <c r="F246" s="39"/>
       <c r="G246" s="39"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="63" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -7824,7 +7837,7 @@
       <c r="F247" s="40"/>
       <c r="G247" s="40"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="62" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -7836,7 +7849,7 @@
       <c r="F248" s="39"/>
       <c r="G248" s="39"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="63" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -7848,7 +7861,7 @@
       <c r="F249" s="40"/>
       <c r="G249" s="40"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="62" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -7860,7 +7873,7 @@
       <c r="F250" s="39"/>
       <c r="G250" s="39"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="63" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -7872,7 +7885,7 @@
       <c r="F251" s="40"/>
       <c r="G251" s="40"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="62" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -7884,7 +7897,7 @@
       <c r="F252" s="39"/>
       <c r="G252" s="39"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="63" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -7896,7 +7909,7 @@
       <c r="F253" s="40"/>
       <c r="G253" s="40"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="62" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -7908,7 +7921,7 @@
       <c r="F254" s="39"/>
       <c r="G254" s="39"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="63" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -7920,7 +7933,7 @@
       <c r="F255" s="40"/>
       <c r="G255" s="40"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="62" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -7932,7 +7945,7 @@
       <c r="F256" s="39"/>
       <c r="G256" s="39"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="63" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -7944,7 +7957,7 @@
       <c r="F257" s="40"/>
       <c r="G257" s="40"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="62" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -7956,7 +7969,7 @@
       <c r="F258" s="39"/>
       <c r="G258" s="39"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="63" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -7968,7 +7981,7 @@
       <c r="F259" s="40"/>
       <c r="G259" s="40"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="62" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -7980,7 +7993,7 @@
       <c r="F260" s="39"/>
       <c r="G260" s="39"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="63" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -7992,7 +8005,7 @@
       <c r="F261" s="40"/>
       <c r="G261" s="40"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="62" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -8004,7 +8017,7 @@
       <c r="F262" s="39"/>
       <c r="G262" s="39"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="63" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -8016,7 +8029,7 @@
       <c r="F263" s="40"/>
       <c r="G263" s="40"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="62" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -8028,7 +8041,7 @@
       <c r="F264" s="39"/>
       <c r="G264" s="39"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="63" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -8040,7 +8053,7 @@
       <c r="F265" s="40"/>
       <c r="G265" s="40"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="62" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -8052,7 +8065,7 @@
       <c r="F266" s="39"/>
       <c r="G266" s="39"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="63" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -8064,7 +8077,7 @@
       <c r="F267" s="40"/>
       <c r="G267" s="40"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="62" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -8076,7 +8089,7 @@
       <c r="F268" s="39"/>
       <c r="G268" s="39"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="63" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -8088,7 +8101,7 @@
       <c r="F269" s="40"/>
       <c r="G269" s="40"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="62" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -8100,7 +8113,7 @@
       <c r="F270" s="39"/>
       <c r="G270" s="39"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="63" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -8112,7 +8125,7 @@
       <c r="F271" s="40"/>
       <c r="G271" s="40"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="62" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -8124,7 +8137,7 @@
       <c r="F272" s="39"/>
       <c r="G272" s="39"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="63" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -8136,7 +8149,7 @@
       <c r="F273" s="40"/>
       <c r="G273" s="40"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="62" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -8148,7 +8161,7 @@
       <c r="F274" s="39"/>
       <c r="G274" s="39"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="63" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -8160,7 +8173,7 @@
       <c r="F275" s="40"/>
       <c r="G275" s="40"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="62" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -8172,7 +8185,7 @@
       <c r="F276" s="39"/>
       <c r="G276" s="39"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="63" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -8184,7 +8197,7 @@
       <c r="F277" s="40"/>
       <c r="G277" s="40"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="62" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -8196,7 +8209,7 @@
       <c r="F278" s="39"/>
       <c r="G278" s="39"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="63" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -8208,7 +8221,7 @@
       <c r="F279" s="40"/>
       <c r="G279" s="40"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="62" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -8220,7 +8233,7 @@
       <c r="F280" s="39"/>
       <c r="G280" s="39"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="63" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -8232,7 +8245,7 @@
       <c r="F281" s="40"/>
       <c r="G281" s="40"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="62" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -8244,7 +8257,7 @@
       <c r="F282" s="39"/>
       <c r="G282" s="39"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="63" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -8256,7 +8269,7 @@
       <c r="F283" s="40"/>
       <c r="G283" s="40"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="62" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -8268,7 +8281,7 @@
       <c r="F284" s="39"/>
       <c r="G284" s="39"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="63" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -8280,7 +8293,7 @@
       <c r="F285" s="40"/>
       <c r="G285" s="40"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="62" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -8292,7 +8305,7 @@
       <c r="F286" s="39"/>
       <c r="G286" s="39"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="63" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -8304,7 +8317,7 @@
       <c r="F287" s="40"/>
       <c r="G287" s="40"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="62" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -8316,7 +8329,7 @@
       <c r="F288" s="39"/>
       <c r="G288" s="39"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="63" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -8328,7 +8341,7 @@
       <c r="F289" s="40"/>
       <c r="G289" s="40"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="62" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -8340,7 +8353,7 @@
       <c r="F290" s="39"/>
       <c r="G290" s="39"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="63" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -8352,7 +8365,7 @@
       <c r="F291" s="40"/>
       <c r="G291" s="40"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="62" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -8364,7 +8377,7 @@
       <c r="F292" s="39"/>
       <c r="G292" s="39"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="63" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -8376,7 +8389,7 @@
       <c r="F293" s="40"/>
       <c r="G293" s="40"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="62" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -8388,7 +8401,7 @@
       <c r="F294" s="39"/>
       <c r="G294" s="39"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="63" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -8400,7 +8413,7 @@
       <c r="F295" s="40"/>
       <c r="G295" s="40"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="62" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -8412,7 +8425,7 @@
       <c r="F296" s="39"/>
       <c r="G296" s="39"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="63" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -8424,7 +8437,7 @@
       <c r="F297" s="40"/>
       <c r="G297" s="40"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="62" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -8436,7 +8449,7 @@
       <c r="F298" s="39"/>
       <c r="G298" s="39"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="63" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -8448,7 +8461,7 @@
       <c r="F299" s="40"/>
       <c r="G299" s="40"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="62" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -8460,7 +8473,7 @@
       <c r="F300" s="39"/>
       <c r="G300" s="39"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="63" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -8472,7 +8485,7 @@
       <c r="F301" s="40"/>
       <c r="G301" s="40"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="62" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -8484,7 +8497,7 @@
       <c r="F302" s="39"/>
       <c r="G302" s="39"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="63" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -8496,7 +8509,7 @@
       <c r="F303" s="40"/>
       <c r="G303" s="40"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="62" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -8508,7 +8521,7 @@
       <c r="F304" s="39"/>
       <c r="G304" s="39"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="63" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -8520,7 +8533,7 @@
       <c r="F305" s="40"/>
       <c r="G305" s="40"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="62" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -8532,7 +8545,7 @@
       <c r="F306" s="39"/>
       <c r="G306" s="39"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="63" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -8544,7 +8557,7 @@
       <c r="F307" s="40"/>
       <c r="G307" s="40"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="62" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -8556,7 +8569,7 @@
       <c r="F308" s="39"/>
       <c r="G308" s="39"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="63" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -8568,7 +8581,7 @@
       <c r="F309" s="40"/>
       <c r="G309" s="40"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="62" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -8580,7 +8593,7 @@
       <c r="F310" s="39"/>
       <c r="G310" s="39"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="63" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -8592,7 +8605,7 @@
       <c r="F311" s="40"/>
       <c r="G311" s="40"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="62" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -8604,7 +8617,7 @@
       <c r="F312" s="39"/>
       <c r="G312" s="39"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="63" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -8616,7 +8629,7 @@
       <c r="F313" s="40"/>
       <c r="G313" s="40"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="62" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -8628,7 +8641,7 @@
       <c r="F314" s="39"/>
       <c r="G314" s="39"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="63" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -8640,7 +8653,7 @@
       <c r="F315" s="40"/>
       <c r="G315" s="40"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="62" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -8652,7 +8665,7 @@
       <c r="F316" s="39"/>
       <c r="G316" s="39"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="63" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -8664,7 +8677,7 @@
       <c r="F317" s="40"/>
       <c r="G317" s="40"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="62" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -8676,7 +8689,7 @@
       <c r="F318" s="39"/>
       <c r="G318" s="39"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="63" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -8688,7 +8701,7 @@
       <c r="F319" s="40"/>
       <c r="G319" s="40"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="62" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -8700,7 +8713,7 @@
       <c r="F320" s="39"/>
       <c r="G320" s="39"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="63" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -8712,7 +8725,7 @@
       <c r="F321" s="40"/>
       <c r="G321" s="40"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="62" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -8724,7 +8737,7 @@
       <c r="F322" s="39"/>
       <c r="G322" s="39"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="63" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -8736,7 +8749,7 @@
       <c r="F323" s="40"/>
       <c r="G323" s="40"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="62" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -8748,7 +8761,7 @@
       <c r="F324" s="39"/>
       <c r="G324" s="39"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="63" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -8760,7 +8773,7 @@
       <c r="F325" s="40"/>
       <c r="G325" s="40"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="62" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -8772,7 +8785,7 @@
       <c r="F326" s="39"/>
       <c r="G326" s="39"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="63" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -8784,7 +8797,7 @@
       <c r="F327" s="40"/>
       <c r="G327" s="40"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="62" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -8796,7 +8809,7 @@
       <c r="F328" s="39"/>
       <c r="G328" s="39"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="63" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -8808,7 +8821,7 @@
       <c r="F329" s="40"/>
       <c r="G329" s="40"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="62" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -8820,7 +8833,7 @@
       <c r="F330" s="39"/>
       <c r="G330" s="39"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="63" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -8832,7 +8845,7 @@
       <c r="F331" s="40"/>
       <c r="G331" s="40"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="62" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -8844,7 +8857,7 @@
       <c r="F332" s="39"/>
       <c r="G332" s="39"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="63" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -8856,7 +8869,7 @@
       <c r="F333" s="40"/>
       <c r="G333" s="40"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="62" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -8868,7 +8881,7 @@
       <c r="F334" s="39"/>
       <c r="G334" s="39"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="63" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -8880,7 +8893,7 @@
       <c r="F335" s="40"/>
       <c r="G335" s="40"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="62" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -8892,7 +8905,7 @@
       <c r="F336" s="39"/>
       <c r="G336" s="39"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="63" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -8904,7 +8917,7 @@
       <c r="F337" s="40"/>
       <c r="G337" s="40"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="62" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -8916,7 +8929,7 @@
       <c r="F338" s="39"/>
       <c r="G338" s="39"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="63" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -8928,7 +8941,7 @@
       <c r="F339" s="40"/>
       <c r="G339" s="40"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="62" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -8940,7 +8953,7 @@
       <c r="F340" s="39"/>
       <c r="G340" s="39"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="63" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -8952,7 +8965,7 @@
       <c r="F341" s="40"/>
       <c r="G341" s="40"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="62" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -8964,7 +8977,7 @@
       <c r="F342" s="39"/>
       <c r="G342" s="39"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="63" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -8976,7 +8989,7 @@
       <c r="F343" s="40"/>
       <c r="G343" s="40"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="62" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -8988,7 +9001,7 @@
       <c r="F344" s="39"/>
       <c r="G344" s="39"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="63" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -9000,7 +9013,7 @@
       <c r="F345" s="40"/>
       <c r="G345" s="40"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="62" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -9012,7 +9025,7 @@
       <c r="F346" s="39"/>
       <c r="G346" s="39"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="63" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -9024,7 +9037,7 @@
       <c r="F347" s="40"/>
       <c r="G347" s="40"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="62" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -9036,7 +9049,7 @@
       <c r="F348" s="39"/>
       <c r="G348" s="39"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="63" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -9048,7 +9061,7 @@
       <c r="F349" s="40"/>
       <c r="G349" s="40"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="62" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -9060,7 +9073,7 @@
       <c r="F350" s="39"/>
       <c r="G350" s="39"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="63" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -9072,7 +9085,7 @@
       <c r="F351" s="40"/>
       <c r="G351" s="40"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="62" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -9084,7 +9097,7 @@
       <c r="F352" s="39"/>
       <c r="G352" s="39"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="63" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -9096,7 +9109,7 @@
       <c r="F353" s="40"/>
       <c r="G353" s="40"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="62" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -9108,7 +9121,7 @@
       <c r="F354" s="39"/>
       <c r="G354" s="39"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="63" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -9120,7 +9133,7 @@
       <c r="F355" s="40"/>
       <c r="G355" s="40"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="62" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -9132,7 +9145,7 @@
       <c r="F356" s="39"/>
       <c r="G356" s="39"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="63" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -9144,7 +9157,7 @@
       <c r="F357" s="40"/>
       <c r="G357" s="40"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="62" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -9156,7 +9169,7 @@
       <c r="F358" s="39"/>
       <c r="G358" s="39"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="63" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -9168,7 +9181,7 @@
       <c r="F359" s="40"/>
       <c r="G359" s="40"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="62" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -9180,7 +9193,7 @@
       <c r="F360" s="39"/>
       <c r="G360" s="39"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="63" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -9192,7 +9205,7 @@
       <c r="F361" s="40"/>
       <c r="G361" s="40"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="62" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -9204,7 +9217,7 @@
       <c r="F362" s="39"/>
       <c r="G362" s="39"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="63" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -9216,7 +9229,7 @@
       <c r="F363" s="40"/>
       <c r="G363" s="40"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="62" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -9228,7 +9241,7 @@
       <c r="F364" s="39"/>
       <c r="G364" s="39"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="63" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -9240,7 +9253,7 @@
       <c r="F365" s="40"/>
       <c r="G365" s="40"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="62" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -9252,7 +9265,7 @@
       <c r="F366" s="39"/>
       <c r="G366" s="39"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="63" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -9264,7 +9277,7 @@
       <c r="F367" s="40"/>
       <c r="G367" s="40"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="62" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -9276,7 +9289,7 @@
       <c r="F368" s="39"/>
       <c r="G368" s="39"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="63" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -9288,7 +9301,7 @@
       <c r="F369" s="40"/>
       <c r="G369" s="40"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="62" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -9300,7 +9313,7 @@
       <c r="F370" s="39"/>
       <c r="G370" s="39"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="63" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -9312,7 +9325,7 @@
       <c r="F371" s="40"/>
       <c r="G371" s="40"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="62" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -9324,7 +9337,7 @@
       <c r="F372" s="39"/>
       <c r="G372" s="39"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="63" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -9336,7 +9349,7 @@
       <c r="F373" s="40"/>
       <c r="G373" s="40"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="62" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -9348,7 +9361,7 @@
       <c r="F374" s="39"/>
       <c r="G374" s="39"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="63" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -9360,7 +9373,7 @@
       <c r="F375" s="40"/>
       <c r="G375" s="40"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="62" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -9372,7 +9385,7 @@
       <c r="F376" s="39"/>
       <c r="G376" s="39"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="63" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -9384,7 +9397,7 @@
       <c r="F377" s="40"/>
       <c r="G377" s="40"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="62" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -9396,7 +9409,7 @@
       <c r="F378" s="39"/>
       <c r="G378" s="39"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="63" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -9408,7 +9421,7 @@
       <c r="F379" s="40"/>
       <c r="G379" s="40"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="62" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -9420,7 +9433,7 @@
       <c r="F380" s="39"/>
       <c r="G380" s="39"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="63" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -9432,7 +9445,7 @@
       <c r="F381" s="40"/>
       <c r="G381" s="40"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="62" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -9444,7 +9457,7 @@
       <c r="F382" s="39"/>
       <c r="G382" s="39"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="63" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -9456,7 +9469,7 @@
       <c r="F383" s="40"/>
       <c r="G383" s="40"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="62" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -9468,7 +9481,7 @@
       <c r="F384" s="39"/>
       <c r="G384" s="39"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="63" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -9480,7 +9493,7 @@
       <c r="F385" s="40"/>
       <c r="G385" s="40"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="62" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -9492,7 +9505,7 @@
       <c r="F386" s="39"/>
       <c r="G386" s="39"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="63" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -9504,7 +9517,7 @@
       <c r="F387" s="40"/>
       <c r="G387" s="40"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="62" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -9516,7 +9529,7 @@
       <c r="F388" s="39"/>
       <c r="G388" s="39"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="63" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -9528,7 +9541,7 @@
       <c r="F389" s="40"/>
       <c r="G389" s="40"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="62" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -9540,7 +9553,7 @@
       <c r="F390" s="39"/>
       <c r="G390" s="39"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="63" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -9552,7 +9565,7 @@
       <c r="F391" s="40"/>
       <c r="G391" s="40"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="62" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -9564,7 +9577,7 @@
       <c r="F392" s="39"/>
       <c r="G392" s="39"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="63" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -9576,7 +9589,7 @@
       <c r="F393" s="40"/>
       <c r="G393" s="40"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="62" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -9588,7 +9601,7 @@
       <c r="F394" s="39"/>
       <c r="G394" s="39"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="63" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -9600,7 +9613,7 @@
       <c r="F395" s="40"/>
       <c r="G395" s="40"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="62" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -9612,7 +9625,7 @@
       <c r="F396" s="39"/>
       <c r="G396" s="39"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="63" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -9624,7 +9637,7 @@
       <c r="F397" s="40"/>
       <c r="G397" s="40"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="62" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -9636,7 +9649,7 @@
       <c r="F398" s="39"/>
       <c r="G398" s="39"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="63" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -9648,7 +9661,7 @@
       <c r="F399" s="40"/>
       <c r="G399" s="40"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="62" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -9660,7 +9673,7 @@
       <c r="F400" s="39"/>
       <c r="G400" s="39"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="63" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -9672,7 +9685,7 @@
       <c r="F401" s="40"/>
       <c r="G401" s="40"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="62" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -9684,7 +9697,7 @@
       <c r="F402" s="39"/>
       <c r="G402" s="39"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="63" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -9696,7 +9709,7 @@
       <c r="F403" s="40"/>
       <c r="G403" s="40"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="62" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -9708,7 +9721,7 @@
       <c r="F404" s="39"/>
       <c r="G404" s="39"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="63" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -9720,7 +9733,7 @@
       <c r="F405" s="40"/>
       <c r="G405" s="40"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="62" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -9732,7 +9745,7 @@
       <c r="F406" s="39"/>
       <c r="G406" s="39"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="63" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -9744,7 +9757,7 @@
       <c r="F407" s="40"/>
       <c r="G407" s="40"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="62" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -9756,7 +9769,7 @@
       <c r="F408" s="39"/>
       <c r="G408" s="39"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="63" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -9768,7 +9781,7 @@
       <c r="F409" s="40"/>
       <c r="G409" s="40"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="62" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -9780,7 +9793,7 @@
       <c r="F410" s="39"/>
       <c r="G410" s="39"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="63" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -9792,7 +9805,7 @@
       <c r="F411" s="40"/>
       <c r="G411" s="40"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="62" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -9804,7 +9817,7 @@
       <c r="F412" s="39"/>
       <c r="G412" s="39"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="63" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -9816,7 +9829,7 @@
       <c r="F413" s="40"/>
       <c r="G413" s="40"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="62" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -9828,7 +9841,7 @@
       <c r="F414" s="39"/>
       <c r="G414" s="39"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="63" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -9840,7 +9853,7 @@
       <c r="F415" s="40"/>
       <c r="G415" s="40"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="62" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -9852,7 +9865,7 @@
       <c r="F416" s="39"/>
       <c r="G416" s="39"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="63" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -9864,7 +9877,7 @@
       <c r="F417" s="40"/>
       <c r="G417" s="40"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="62" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -9876,7 +9889,7 @@
       <c r="F418" s="39"/>
       <c r="G418" s="39"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="63" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -9888,7 +9901,7 @@
       <c r="F419" s="40"/>
       <c r="G419" s="40"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="62" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -9900,7 +9913,7 @@
       <c r="F420" s="39"/>
       <c r="G420" s="39"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="63" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -9912,7 +9925,7 @@
       <c r="F421" s="40"/>
       <c r="G421" s="40"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="62" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -9924,7 +9937,7 @@
       <c r="F422" s="39"/>
       <c r="G422" s="39"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="63" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -9936,7 +9949,7 @@
       <c r="F423" s="40"/>
       <c r="G423" s="40"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="62" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -9948,7 +9961,7 @@
       <c r="F424" s="39"/>
       <c r="G424" s="39"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="63" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -9960,7 +9973,7 @@
       <c r="F425" s="40"/>
       <c r="G425" s="40"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="62" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -9972,7 +9985,7 @@
       <c r="F426" s="39"/>
       <c r="G426" s="39"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="63" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -9984,7 +9997,7 @@
       <c r="F427" s="40"/>
       <c r="G427" s="40"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="62" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -9996,7 +10009,7 @@
       <c r="F428" s="39"/>
       <c r="G428" s="39"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="63" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -10008,7 +10021,7 @@
       <c r="F429" s="40"/>
       <c r="G429" s="40"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="62" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -10020,7 +10033,7 @@
       <c r="F430" s="39"/>
       <c r="G430" s="39"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="63" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -10032,7 +10045,7 @@
       <c r="F431" s="40"/>
       <c r="G431" s="40"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="62" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -10044,7 +10057,7 @@
       <c r="F432" s="39"/>
       <c r="G432" s="39"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="63" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -10056,7 +10069,7 @@
       <c r="F433" s="40"/>
       <c r="G433" s="40"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="62" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -10068,7 +10081,7 @@
       <c r="F434" s="39"/>
       <c r="G434" s="39"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="63" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -10080,7 +10093,7 @@
       <c r="F435" s="40"/>
       <c r="G435" s="40"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="62" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -10092,7 +10105,7 @@
       <c r="F436" s="39"/>
       <c r="G436" s="39"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="63" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -10104,7 +10117,7 @@
       <c r="F437" s="40"/>
       <c r="G437" s="40"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="62" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -10116,7 +10129,7 @@
       <c r="F438" s="39"/>
       <c r="G438" s="39"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="63" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -10128,7 +10141,7 @@
       <c r="F439" s="40"/>
       <c r="G439" s="40"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="62" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -10140,7 +10153,7 @@
       <c r="F440" s="39"/>
       <c r="G440" s="39"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="63" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -10152,7 +10165,7 @@
       <c r="F441" s="40"/>
       <c r="G441" s="40"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="62" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -10164,7 +10177,7 @@
       <c r="F442" s="39"/>
       <c r="G442" s="39"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="63" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -10176,7 +10189,7 @@
       <c r="F443" s="40"/>
       <c r="G443" s="40"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="62" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -10188,7 +10201,7 @@
       <c r="F444" s="39"/>
       <c r="G444" s="39"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="63" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -10200,7 +10213,7 @@
       <c r="F445" s="40"/>
       <c r="G445" s="40"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="62" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -10212,7 +10225,7 @@
       <c r="F446" s="39"/>
       <c r="G446" s="39"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="63" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -10224,7 +10237,7 @@
       <c r="F447" s="40"/>
       <c r="G447" s="40"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="62" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -10236,7 +10249,7 @@
       <c r="F448" s="39"/>
       <c r="G448" s="39"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="63" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -10248,7 +10261,7 @@
       <c r="F449" s="40"/>
       <c r="G449" s="40"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="62" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -10260,7 +10273,7 @@
       <c r="F450" s="39"/>
       <c r="G450" s="39"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="63" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -10272,7 +10285,7 @@
       <c r="F451" s="40"/>
       <c r="G451" s="40"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="62" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -10284,7 +10297,7 @@
       <c r="F452" s="39"/>
       <c r="G452" s="39"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="63" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -10296,7 +10309,7 @@
       <c r="F453" s="40"/>
       <c r="G453" s="40"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="62" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -10308,7 +10321,7 @@
       <c r="F454" s="39"/>
       <c r="G454" s="39"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="63" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -10320,7 +10333,7 @@
       <c r="F455" s="40"/>
       <c r="G455" s="40"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="62" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -10332,7 +10345,7 @@
       <c r="F456" s="39"/>
       <c r="G456" s="39"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="63" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -10344,7 +10357,7 @@
       <c r="F457" s="40"/>
       <c r="G457" s="40"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="62" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -10356,7 +10369,7 @@
       <c r="F458" s="39"/>
       <c r="G458" s="39"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="63" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -10368,7 +10381,7 @@
       <c r="F459" s="40"/>
       <c r="G459" s="40"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="62" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -10380,7 +10393,7 @@
       <c r="F460" s="39"/>
       <c r="G460" s="39"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="63" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -10392,7 +10405,7 @@
       <c r="F461" s="40"/>
       <c r="G461" s="40"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="62" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -10404,7 +10417,7 @@
       <c r="F462" s="39"/>
       <c r="G462" s="39"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="63" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -10416,7 +10429,7 @@
       <c r="F463" s="40"/>
       <c r="G463" s="40"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="62" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -10428,7 +10441,7 @@
       <c r="F464" s="39"/>
       <c r="G464" s="39"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="63" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -10440,7 +10453,7 @@
       <c r="F465" s="40"/>
       <c r="G465" s="40"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="62" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -10452,7 +10465,7 @@
       <c r="F466" s="39"/>
       <c r="G466" s="39"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="63" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -10464,7 +10477,7 @@
       <c r="F467" s="40"/>
       <c r="G467" s="40"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="62" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -10476,7 +10489,7 @@
       <c r="F468" s="39"/>
       <c r="G468" s="39"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="63" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -10488,7 +10501,7 @@
       <c r="F469" s="40"/>
       <c r="G469" s="40"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="62" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -10500,7 +10513,7 @@
       <c r="F470" s="39"/>
       <c r="G470" s="39"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="63" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -10512,7 +10525,7 @@
       <c r="F471" s="40"/>
       <c r="G471" s="40"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="62" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -10524,7 +10537,7 @@
       <c r="F472" s="39"/>
       <c r="G472" s="39"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="63" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -10536,7 +10549,7 @@
       <c r="F473" s="40"/>
       <c r="G473" s="40"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="62" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -10548,7 +10561,7 @@
       <c r="F474" s="39"/>
       <c r="G474" s="39"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="63" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -10560,7 +10573,7 @@
       <c r="F475" s="40"/>
       <c r="G475" s="40"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="62" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -10572,7 +10585,7 @@
       <c r="F476" s="39"/>
       <c r="G476" s="39"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="63" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -10584,7 +10597,7 @@
       <c r="F477" s="40"/>
       <c r="G477" s="40"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="62" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -10596,7 +10609,7 @@
       <c r="F478" s="39"/>
       <c r="G478" s="39"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="63" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -10608,7 +10621,7 @@
       <c r="F479" s="40"/>
       <c r="G479" s="40"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="62" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -10620,7 +10633,7 @@
       <c r="F480" s="39"/>
       <c r="G480" s="39"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="63" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -10632,7 +10645,7 @@
       <c r="F481" s="40"/>
       <c r="G481" s="40"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="62" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -10644,7 +10657,7 @@
       <c r="F482" s="39"/>
       <c r="G482" s="39"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="63" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -10656,7 +10669,7 @@
       <c r="F483" s="40"/>
       <c r="G483" s="40"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="62" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -10668,7 +10681,7 @@
       <c r="F484" s="39"/>
       <c r="G484" s="39"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="63" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -10680,7 +10693,7 @@
       <c r="F485" s="40"/>
       <c r="G485" s="40"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="62" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -10692,7 +10705,7 @@
       <c r="F486" s="39"/>
       <c r="G486" s="39"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="63" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -10704,7 +10717,7 @@
       <c r="F487" s="40"/>
       <c r="G487" s="40"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="62" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -10716,7 +10729,7 @@
       <c r="F488" s="39"/>
       <c r="G488" s="39"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="63" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -10728,7 +10741,7 @@
       <c r="F489" s="40"/>
       <c r="G489" s="40"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="62" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -10740,7 +10753,7 @@
       <c r="F490" s="39"/>
       <c r="G490" s="39"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="63" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -10752,7 +10765,7 @@
       <c r="F491" s="40"/>
       <c r="G491" s="40"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="62" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -10764,7 +10777,7 @@
       <c r="F492" s="39"/>
       <c r="G492" s="39"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="63" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -10776,7 +10789,7 @@
       <c r="F493" s="40"/>
       <c r="G493" s="40"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="62" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -10788,7 +10801,7 @@
       <c r="F494" s="39"/>
       <c r="G494" s="39"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="63" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -10800,7 +10813,7 @@
       <c r="F495" s="40"/>
       <c r="G495" s="40"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="62" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -10812,7 +10825,7 @@
       <c r="F496" s="39"/>
       <c r="G496" s="39"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="63" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -10824,7 +10837,7 @@
       <c r="F497" s="40"/>
       <c r="G497" s="40"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="62" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -10836,7 +10849,7 @@
       <c r="F498" s="39"/>
       <c r="G498" s="39"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="63" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -10848,7 +10861,7 @@
       <c r="F499" s="40"/>
       <c r="G499" s="40"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="62" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -10860,7 +10873,7 @@
       <c r="F500" s="39"/>
       <c r="G500" s="39"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="63" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -10872,7 +10885,7 @@
       <c r="F501" s="40"/>
       <c r="G501" s="40"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="62" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -10884,7 +10897,7 @@
       <c r="F502" s="39"/>
       <c r="G502" s="39"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="63" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -10896,7 +10909,7 @@
       <c r="F503" s="40"/>
       <c r="G503" s="40"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="62" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -10908,7 +10921,7 @@
       <c r="F504" s="39"/>
       <c r="G504" s="39"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="63" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -10920,7 +10933,7 @@
       <c r="F505" s="40"/>
       <c r="G505" s="40"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="62" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -10932,7 +10945,7 @@
       <c r="F506" s="39"/>
       <c r="G506" s="39"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="63" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -10944,7 +10957,7 @@
       <c r="F507" s="40"/>
       <c r="G507" s="40"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="62" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -10956,7 +10969,7 @@
       <c r="F508" s="39"/>
       <c r="G508" s="39"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="63" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -10968,7 +10981,7 @@
       <c r="F509" s="40"/>
       <c r="G509" s="40"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="62" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -10980,7 +10993,7 @@
       <c r="F510" s="39"/>
       <c r="G510" s="39"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="63" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -10992,7 +11005,7 @@
       <c r="F511" s="40"/>
       <c r="G511" s="40"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="62" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -11004,7 +11017,7 @@
       <c r="F512" s="39"/>
       <c r="G512" s="39"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="63" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -11016,7 +11029,7 @@
       <c r="F513" s="40"/>
       <c r="G513" s="40"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="62" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -11028,7 +11041,7 @@
       <c r="F514" s="39"/>
       <c r="G514" s="39"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="63" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -11040,7 +11053,7 @@
       <c r="F515" s="40"/>
       <c r="G515" s="40"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="62" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -11052,7 +11065,7 @@
       <c r="F516" s="39"/>
       <c r="G516" s="39"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="63" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -11064,7 +11077,7 @@
       <c r="F517" s="40"/>
       <c r="G517" s="40"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="62" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -11076,7 +11089,7 @@
       <c r="F518" s="39"/>
       <c r="G518" s="39"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="63" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -11088,7 +11101,7 @@
       <c r="F519" s="40"/>
       <c r="G519" s="40"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="62" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -11100,7 +11113,7 @@
       <c r="F520" s="39"/>
       <c r="G520" s="39"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="63" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -11112,7 +11125,7 @@
       <c r="F521" s="40"/>
       <c r="G521" s="40"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="62" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -11124,7 +11137,7 @@
       <c r="F522" s="39"/>
       <c r="G522" s="39"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="63" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -11136,7 +11149,7 @@
       <c r="F523" s="40"/>
       <c r="G523" s="40"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="62" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -11148,7 +11161,7 @@
       <c r="F524" s="39"/>
       <c r="G524" s="39"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="63" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -11160,7 +11173,7 @@
       <c r="F525" s="40"/>
       <c r="G525" s="40"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="62" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -11172,7 +11185,7 @@
       <c r="F526" s="39"/>
       <c r="G526" s="39"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="63" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -11184,7 +11197,7 @@
       <c r="F527" s="40"/>
       <c r="G527" s="40"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="62" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -11196,7 +11209,7 @@
       <c r="F528" s="39"/>
       <c r="G528" s="39"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="63" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -11208,7 +11221,7 @@
       <c r="F529" s="40"/>
       <c r="G529" s="40"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="62" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -11220,7 +11233,7 @@
       <c r="F530" s="39"/>
       <c r="G530" s="39"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="63" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -11232,7 +11245,7 @@
       <c r="F531" s="40"/>
       <c r="G531" s="40"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="62" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -11316,19 +11329,19 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.8984375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="1" max="3" width="10.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="21" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E2" s="66" t="s">
         <v>24</v>
       </c>
@@ -11342,12 +11355,12 @@
       <c r="M2" s="44"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E4" s="66" t="s">
         <v>25</v>
       </c>
@@ -11357,7 +11370,7 @@
       <c r="M4" s="41"/>
       <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11387,7 +11400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -11410,7 +11423,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>9.7165991902834009E-2</v>
+        <v>9.125475285171103E-2</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11424,18 +11437,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11443,11 +11456,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>12 h 00 min</v>
+        <v>13 h 20 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.582995951417004</v>
+        <v>0.60836501901140683</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11461,7 +11474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
@@ -11484,7 +11497,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>9.7165991902834009E-2</v>
+        <v>9.125475285171103E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11498,7 +11511,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
@@ -11521,7 +11534,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.22267206477732793</v>
+        <v>0.20912547528517111</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11535,7 +11548,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E10,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -11570,29 +11583,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1235</v>
+        <v>1315</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>20 h 35 min</v>
+        <v>21 h 55 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.85763888888888884</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11603,13 +11616,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>F2*60</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F13" s="43"/>
     </row>
   </sheetData>
@@ -11627,7 +11640,7 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="hkKOZ8xr/Okjo/AJlNTtoGYYhES8sIn2fOpGKGGyPJqhNRzaMuj9V6Pke+VqLSypQTwaNPCt0dhRPEVp9CfBFA==" saltValue="lF/ApQWS3LBdJp0wgcNUcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11636,15 +11649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11653,6 +11657,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11857,14 +11870,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11873,6 +11878,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7766D80-C64B-4B66-8CC4-96A06AE06A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A6223-1FE1-42C2-A0EA-457D23CBC8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Auteur:</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>Ajouter la persistance de l’état de l’application (local JSON)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'analyse du feedback avec professeur </t>
+  </si>
+  <si>
+    <t>comments in all code, amelioreation d'expliquation du code (summary...)</t>
+  </si>
+  <si>
+    <t>retouches du readme, Fix links and improve README formatting</t>
   </si>
 </sst>
 </file>
@@ -1317,16 +1326,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1393,6 +1402,7 @@
     </c:legend>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1400,7 +1410,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1766,6 +1775,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1773,7 +1783,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2250,16 +2259,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.125475285171103E-2</c:v>
+                  <c:v>0.10071942446043165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60836501901140683</c:v>
+                  <c:v>0.6079136690647482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.125475285171103E-2</c:v>
+                  <c:v>8.6330935251798566E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20912547528517111</c:v>
+                  <c:v>0.20503597122302158</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2417,6 +2426,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2424,7 +2434,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4447,8 +4456,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4503,7 +4512,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>21 heures 55 minutes</v>
+        <v>23 heures 10 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4522,11 +4531,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1315</v>
+        <v>1390</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5342,47 +5351,73 @@
       <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="str">
+      <c r="A40" s="62">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="30"/>
+        <v>44</v>
+      </c>
+      <c r="B40" s="30">
+        <v>45961</v>
+      </c>
       <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="22"/>
+      <c r="D40" s="32">
+        <v>20</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="str">
+      <c r="A41" s="63">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
-        <v/>
-      </c>
-      <c r="B41" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="34">
+        <v>45961</v>
+      </c>
       <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="22"/>
+      <c r="D41" s="36">
+        <v>45</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="str">
+      <c r="A42" s="62">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
-        <v/>
-      </c>
-      <c r="B42" s="30"/>
+        <v>44</v>
+      </c>
+      <c r="B42" s="30">
+        <v>45961</v>
+      </c>
       <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="32">
+        <v>10</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="str">
+      <c r="A43" s="63">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
-        <v/>
-      </c>
-      <c r="B43" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="B43" s="34">
+        <v>45961</v>
+      </c>
       <c r="C43" s="35"/>
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
@@ -11407,11 +11442,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">SUM(A6:B6)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E6" s="70" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11419,11 +11454,11 @@
       </c>
       <c r="F6" s="71" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>2 h 00 min</v>
+        <v>2 h 20 min</v>
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>9.125475285171103E-2</v>
+        <v>0.10071942446043165</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11444,11 +11479,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>845</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11456,11 +11491,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>13 h 20 min</v>
+        <v>14 h 05 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.60836501901140683</v>
+        <v>0.6079136690647482</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11497,7 +11532,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>9.125475285171103E-2</v>
+        <v>8.6330935251798566E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11518,11 +11553,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11530,11 +11565,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>4 h 35 min</v>
+        <v>4 h 45 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.20912547528517111</v>
+        <v>0.20503597122302158</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11590,22 +11625,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1315</v>
+        <v>1390</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>21 h 55 min</v>
+        <v>23 h 10 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.91319444444444442</v>
+        <v>0.96527777777777779</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11649,6 +11684,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11657,15 +11701,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11870,6 +11905,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11878,14 +11921,6 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A6223-1FE1-42C2-A0EA-457D23CBC8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597B19B-8391-4D63-8F75-505221655BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>Auteur:</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>retouches du readme, Fix links and improve README formatting</t>
+  </si>
+  <si>
+    <t>src/ api(EnforceRateLimitAsync), supprimé api request de combobox</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>845</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
@@ -2259,16 +2262,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10071942446043165</c:v>
+                  <c:v>9.8591549295774641E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6079136690647482</c:v>
+                  <c:v>0.61619718309859151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6330935251798566E-2</c:v>
+                  <c:v>8.4507042253521125E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20503597122302158</c:v>
+                  <c:v>0.20070422535211269</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4456,8 +4459,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4512,7 +4515,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>23 heures 10 minutes</v>
+        <v>23 heures 40 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4531,11 +4534,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1390</v>
+        <v>1420</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5419,9 +5422,15 @@
         <v>45961</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="22"/>
+      <c r="D43" s="36">
+        <v>30</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -11458,7 +11467,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.10071942446043165</v>
+        <v>9.8591549295774641E-2</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11479,11 +11488,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11491,11 +11500,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>14 h 05 min</v>
+        <v>14 h 35 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.6079136690647482</v>
+        <v>0.61619718309859151</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11532,7 +11541,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>8.6330935251798566E-2</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11569,7 +11578,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.20503597122302158</v>
+        <v>0.20070422535211269</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11625,22 +11634,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1390</v>
+        <v>1420</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>23 h 10 min</v>
+        <v>23 h 40 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.96527777777777779</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597B19B-8391-4D63-8F75-505221655BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E52EC-84BD-42DB-BDD7-4D54FF836627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>Auteur:</t>
   </si>
@@ -1338,7 +1338,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2262,16 +2262,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.8591549295774641E-2</c:v>
+                  <c:v>9.6885813148788927E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61619718309859151</c:v>
+                  <c:v>0.60553633217993075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4507042253521125E-2</c:v>
+                  <c:v>8.3044982698961933E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20070422535211269</c:v>
+                  <c:v>0.21453287197231835</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4458,9 +4458,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4515,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>23 heures 40 minutes</v>
+        <v>24 heures 5 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4534,11 +4534,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1420</v>
+        <v>1445</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5434,27 +5434,43 @@
       <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="str">
+      <c r="A44" s="62">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
-        <v/>
-      </c>
-      <c r="B44" s="30"/>
+        <v>44</v>
+      </c>
+      <c r="B44" s="30">
+        <v>45961</v>
+      </c>
       <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="22"/>
+      <c r="D44" s="32">
+        <v>10</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G44" s="39"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="str">
+      <c r="A45" s="63">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
-        <v/>
-      </c>
-      <c r="B45" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="34">
+        <v>45961</v>
+      </c>
       <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="22"/>
+      <c r="D45" s="36">
+        <v>15</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -11467,7 +11483,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>9.8591549295774641E-2</v>
+        <v>9.6885813148788927E-2</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11504,7 +11520,7 @@
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.61619718309859151</v>
+        <v>0.60553633217993075</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11541,7 +11557,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>8.4507042253521125E-2</v>
+        <v>8.3044982698961933E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11562,11 +11578,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11574,11 +11590,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>4 h 45 min</v>
+        <v>5 h 10 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.20070422535211269</v>
+        <v>0.21453287197231835</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11634,22 +11650,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1420</v>
+        <v>1445</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>23 h 40 min</v>
+        <v>24 h 05 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.98611111111111116</v>
+        <v>1.0034722222222223</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11693,15 +11709,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
@@ -11710,6 +11717,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11914,14 +11930,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11930,6 +11938,14 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
     <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
     <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Journal-de-Travail_NademoYosef.xlsx
+++ b/doc/Journal-de-Travail_NademoYosef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Plot_those_lines\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E52EC-84BD-42DB-BDD7-4D54FF836627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85B05A3-4DB5-4E2E-9052-99E4273010A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Auteur:</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>src/ api(EnforceRateLimitAsync), supprimé api request de combobox</t>
+  </si>
+  <si>
+    <t>correction de schema de fonctionnement d'application + correction du rapport</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>310</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1405,7 +1408,6 @@
     </c:legend>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1413,6 +1415,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1778,7 +1781,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1786,6 +1788,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2262,16 +2265,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.6885813148788927E-2</c:v>
+                  <c:v>9.556313993174062E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60553633217993075</c:v>
+                  <c:v>0.59726962457337884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3044982698961933E-2</c:v>
+                  <c:v>8.191126279863481E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21453287197231835</c:v>
+                  <c:v>0.22525597269624573</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2429,7 +2432,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2437,6 +2439,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4458,9 +4461,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4518,7 @@
       <c r="B3" s="88"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>24 heures 5 minutes</v>
+        <v>24 heures 25 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4534,11 +4537,11 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1445</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5474,15 +5477,23 @@
       <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="str">
+      <c r="A46" s="62">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
-        <v/>
-      </c>
-      <c r="B46" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="30">
+        <v>45974</v>
+      </c>
       <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="22"/>
+      <c r="D46" s="32">
+        <v>20</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -11483,7 +11494,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>9.6885813148788927E-2</v>
+        <v>9.556313993174062E-2</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11520,7 +11531,7 @@
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.60553633217993075</v>
+        <v>0.59726962457337884</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11557,7 +11568,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>8.3044982698961933E-2</v>
+        <v>8.191126279863481E-2</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11578,11 +11589,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11590,11 +11601,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>5 h 10 min</v>
+        <v>5 h 30 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.21453287197231835</v>
+        <v>0.22525597269624573</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11650,22 +11661,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1445</v>
+        <v>1465</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>24 h 05 min</v>
+        <v>24 h 25 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>1.0034722222222223</v>
+        <v>1.0173611111111112</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11709,26 +11720,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dfbaf9a740889adeb1cda0be194d08b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f25723b2930dbb90e2332f0c8c46e31" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11929,28 +11920,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7F8341A-4C75-4689-8311-30F611A1EC8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11967,4 +11957,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>